--- a/data/rhoExt.xlsx
+++ b/data/rhoExt.xlsx
@@ -1,22 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carmen/Dropbox/INDITEK_cermeno/inditek_FINAL/CODE/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carmen/Documents/INDITEK_cermeno/fromPEDRO/FINAL_OUTPUTS/INDITEK-mainFINAL/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E688598-0DD3-7F41-A47C-D795842E2B9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D3BBE16-A024-274F-99E7-5FEBACA8D7B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="21940" windowHeight="17400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
@@ -36,7 +44,7 @@
     <t>rho Alroy 2010</t>
   </si>
   <si>
-    <t>rho Sepkoski 1997 Stanley 2007</t>
+    <t>rho Sepkoski from http://strata.geology.wisc.edu/jack/ (Invertebrates only)</t>
   </si>
 </sst>
 </file>
@@ -273,7 +281,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -282,6 +290,15 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="18">
     <cellStyle name="Accent 1 17" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -683,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D543"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A462" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -692,7 +709,7 @@
     <col min="1" max="1" width="11.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="4" customWidth="1"/>
     <col min="3" max="3" width="22.1640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="32.83203125" style="10" customWidth="1"/>
     <col min="5" max="1020" width="11.5" style="2"/>
     <col min="1021" max="16384" width="8.83203125" style="2"/>
   </cols>
@@ -707,7 +724,7 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
     </row>
@@ -721,7 +738,7 @@
       <c r="C2" s="5">
         <v>0.01</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -735,7 +752,7 @@
       <c r="C3" s="5">
         <v>0.01</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -749,7 +766,7 @@
       <c r="C4" s="5">
         <v>0.01</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -763,7 +780,7 @@
       <c r="C5" s="5">
         <v>0.01</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -777,7 +794,7 @@
       <c r="C6" s="5">
         <v>0.01</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -791,7 +808,7 @@
       <c r="C7" s="5">
         <v>0.01</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -805,7 +822,7 @@
       <c r="C8" s="5">
         <v>0.01</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -819,7 +836,7 @@
       <c r="C9" s="5">
         <v>0.01</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -833,7 +850,7 @@
       <c r="C10" s="5">
         <v>0.01</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -847,7 +864,7 @@
       <c r="C11" s="5">
         <v>0.01</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -861,7 +878,7 @@
       <c r="C12" s="5">
         <v>0.01</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -875,7 +892,7 @@
       <c r="C13" s="5">
         <v>0.01</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -889,7 +906,7 @@
       <c r="C14" s="5">
         <v>0.01</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -903,7 +920,7 @@
       <c r="C15" s="5">
         <v>0.01</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -917,7 +934,7 @@
       <c r="C16" s="5">
         <v>0.01</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -931,7 +948,7 @@
       <c r="C17" s="5">
         <v>0.01</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -945,7 +962,7 @@
       <c r="C18" s="5">
         <v>0.01</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -959,7 +976,7 @@
       <c r="C19" s="5">
         <v>0.01</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -973,7 +990,7 @@
       <c r="C20" s="5">
         <v>0.01</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -987,7 +1004,7 @@
       <c r="C21" s="5">
         <v>0.01</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -1001,7 +1018,7 @@
       <c r="C22" s="5">
         <v>0.01</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -1015,7 +1032,7 @@
       <c r="C23" s="5">
         <v>0.01</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -1029,7 +1046,7 @@
       <c r="C24" s="5">
         <v>0.01</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -1043,7 +1060,7 @@
       <c r="C25" s="5">
         <v>0.01</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -1057,7 +1074,7 @@
       <c r="C26" s="5">
         <v>0.01</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -1071,7 +1088,7 @@
       <c r="C27" s="5">
         <v>0.01</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -1085,7 +1102,7 @@
       <c r="C28" s="5">
         <v>0.01</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -1099,7 +1116,7 @@
       <c r="C29" s="5">
         <v>0.01</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -1113,7 +1130,7 @@
       <c r="C30" s="5">
         <v>0.01</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -1127,7 +1144,7 @@
       <c r="C31" s="5">
         <v>0.01</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -1141,7 +1158,7 @@
       <c r="C32" s="5">
         <v>0.01</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -1155,7 +1172,7 @@
       <c r="C33" s="5">
         <v>0.01</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -1169,7 +1186,7 @@
       <c r="C34" s="5">
         <v>0.01</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -1183,7 +1200,7 @@
       <c r="C35" s="5">
         <v>0.01</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -1197,7 +1214,7 @@
       <c r="C36" s="5">
         <v>0.01</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -1211,7 +1228,7 @@
       <c r="C37" s="5">
         <v>0.01</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -1225,7 +1242,7 @@
       <c r="C38" s="5">
         <v>0.01</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -1239,7 +1256,7 @@
       <c r="C39" s="5">
         <v>0.01</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -1253,7 +1270,7 @@
       <c r="C40" s="5">
         <v>0.01</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -1267,7 +1284,7 @@
       <c r="C41" s="5">
         <v>0.01</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -1281,7 +1298,7 @@
       <c r="C42" s="5">
         <v>0.01</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -1295,7 +1312,7 @@
       <c r="C43" s="5">
         <v>0.01</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -1309,7 +1326,7 @@
       <c r="C44" s="5">
         <v>0.01</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -1323,7 +1340,7 @@
       <c r="C45" s="5">
         <v>0.01</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -1337,7 +1354,7 @@
       <c r="C46" s="5">
         <v>0.01</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -1351,7 +1368,7 @@
       <c r="C47" s="5">
         <v>0.01</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D47" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -1365,7 +1382,7 @@
       <c r="C48" s="5">
         <v>0.01</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D48" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -1379,7 +1396,7 @@
       <c r="C49" s="5">
         <v>0.01</v>
       </c>
-      <c r="D49" s="4">
+      <c r="D49" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -1393,7 +1410,7 @@
       <c r="C50" s="5">
         <v>0.01</v>
       </c>
-      <c r="D50" s="4">
+      <c r="D50" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -1407,7 +1424,7 @@
       <c r="C51" s="5">
         <v>0.01</v>
       </c>
-      <c r="D51" s="4">
+      <c r="D51" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -1421,7 +1438,7 @@
       <c r="C52" s="5">
         <v>0.01</v>
       </c>
-      <c r="D52" s="4">
+      <c r="D52" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -1435,7 +1452,7 @@
       <c r="C53" s="5">
         <v>0.01</v>
       </c>
-      <c r="D53" s="4">
+      <c r="D53" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -1449,7 +1466,7 @@
       <c r="C54" s="5">
         <v>0.01</v>
       </c>
-      <c r="D54" s="4">
+      <c r="D54" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -1463,7 +1480,7 @@
       <c r="C55" s="5">
         <v>0.01</v>
       </c>
-      <c r="D55" s="4">
+      <c r="D55" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -1477,7 +1494,7 @@
       <c r="C56" s="5">
         <v>0.01</v>
       </c>
-      <c r="D56" s="4">
+      <c r="D56" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -1491,7 +1508,7 @@
       <c r="C57" s="5">
         <v>0.01</v>
       </c>
-      <c r="D57" s="4">
+      <c r="D57" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -1505,7 +1522,7 @@
       <c r="C58" s="5">
         <v>0.01</v>
       </c>
-      <c r="D58" s="4">
+      <c r="D58" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -1519,7 +1536,7 @@
       <c r="C59" s="5">
         <v>0.01</v>
       </c>
-      <c r="D59" s="4">
+      <c r="D59" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -1533,7 +1550,7 @@
       <c r="C60" s="5">
         <v>0.01</v>
       </c>
-      <c r="D60" s="4">
+      <c r="D60" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -1547,7 +1564,7 @@
       <c r="C61" s="5">
         <v>0.01</v>
       </c>
-      <c r="D61" s="4">
+      <c r="D61" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -1561,7 +1578,7 @@
       <c r="C62" s="5">
         <v>0.01</v>
       </c>
-      <c r="D62" s="4">
+      <c r="D62" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -1575,7 +1592,7 @@
       <c r="C63" s="5">
         <v>0.01</v>
       </c>
-      <c r="D63" s="4">
+      <c r="D63" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -1589,7 +1606,7 @@
       <c r="C64" s="5">
         <v>0.01</v>
       </c>
-      <c r="D64" s="4">
+      <c r="D64" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -1603,7 +1620,7 @@
       <c r="C65" s="5">
         <v>0.01</v>
       </c>
-      <c r="D65" s="4">
+      <c r="D65" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -1617,7 +1634,7 @@
       <c r="C66" s="5">
         <v>0.01</v>
       </c>
-      <c r="D66" s="4">
+      <c r="D66" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -1631,7 +1648,7 @@
       <c r="C67" s="5">
         <v>0.01</v>
       </c>
-      <c r="D67" s="4">
+      <c r="D67" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -1645,7 +1662,7 @@
       <c r="C68" s="5">
         <v>0.01</v>
       </c>
-      <c r="D68" s="4">
+      <c r="D68" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -1659,7 +1676,7 @@
       <c r="C69" s="5">
         <v>0.01</v>
       </c>
-      <c r="D69" s="4">
+      <c r="D69" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -1673,7 +1690,7 @@
       <c r="C70" s="5">
         <v>0.01</v>
       </c>
-      <c r="D70" s="4">
+      <c r="D70" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -1687,7 +1704,7 @@
       <c r="C71" s="5">
         <v>0.01</v>
       </c>
-      <c r="D71" s="4">
+      <c r="D71" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -1701,7 +1718,7 @@
       <c r="C72" s="5">
         <v>-8.0783300241392703E-3</v>
       </c>
-      <c r="D72" s="4">
+      <c r="D72" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -1715,7 +1732,7 @@
       <c r="C73" s="5">
         <v>-8.1441209206935001E-3</v>
       </c>
-      <c r="D73" s="4">
+      <c r="D73" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -1729,7 +1746,7 @@
       <c r="C74" s="5">
         <v>-8.2109922343285308E-3</v>
       </c>
-      <c r="D74" s="4">
+      <c r="D74" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -1743,7 +1760,7 @@
       <c r="C75" s="5">
         <v>-8.2789707992695395E-3</v>
       </c>
-      <c r="D75" s="4">
+      <c r="D75" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -1757,7 +1774,7 @@
       <c r="C76" s="5">
         <v>-8.3480843457982602E-3</v>
       </c>
-      <c r="D76" s="4">
+      <c r="D76" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -1771,7 +1788,7 @@
       <c r="C77" s="5">
         <v>-8.4183615379707106E-3</v>
       </c>
-      <c r="D77" s="4">
+      <c r="D77" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -1785,7 +1802,7 @@
       <c r="C78" s="5">
         <v>-8.4898320132549294E-3</v>
       </c>
-      <c r="D78" s="4">
+      <c r="D78" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -1799,7 +1816,7 @@
       <c r="C79" s="5">
         <v>-8.5625264242054095E-3</v>
       </c>
-      <c r="D79" s="4">
+      <c r="D79" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -1813,7 +1830,7 @@
       <c r="C80" s="5">
         <v>-8.6364764822971507E-3</v>
       </c>
-      <c r="D80" s="4">
+      <c r="D80" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -1827,7 +1844,7 @@
       <c r="C81" s="5">
         <v>-8.7117150040501006E-3</v>
       </c>
-      <c r="D81" s="4">
+      <c r="D81" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -1841,7 +1858,7 @@
       <c r="C82" s="5">
         <v>-8.7882759595869792E-3</v>
       </c>
-      <c r="D82" s="4">
+      <c r="D82" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -1855,7 +1872,7 @@
       <c r="C83" s="5">
         <v>-8.8661945237732392E-3</v>
       </c>
-      <c r="D83" s="4">
+      <c r="D83" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -1869,7 +1886,7 @@
       <c r="C84" s="5">
         <v>-8.9455071301023405E-3</v>
       </c>
-      <c r="D84" s="4">
+      <c r="D84" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -1883,7 +1900,7 @@
       <c r="C85" s="5">
         <v>-9.0262515275001398E-3</v>
       </c>
-      <c r="D85" s="4">
+      <c r="D85" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -1897,7 +1914,7 @@
       <c r="C86" s="5">
         <v>-9.1084668402294806E-3</v>
       </c>
-      <c r="D86" s="4">
+      <c r="D86" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -1911,8 +1928,8 @@
       <c r="C87" s="5">
         <v>-9.1921936311077906E-3</v>
       </c>
-      <c r="D87" s="4">
-        <v>0.01</v>
+      <c r="D87" s="9">
+        <v>-1.9631759307660999E-2</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -1925,8 +1942,8 @@
       <c r="C88" s="5">
         <v>-9.2774739682309794E-3</v>
       </c>
-      <c r="D88" s="4">
-        <v>0.01</v>
+      <c r="D88" s="9">
+        <v>-2.00248829906985E-2</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -1939,8 +1956,8 @@
       <c r="C89" s="5">
         <v>-9.3643514954598901E-3</v>
       </c>
-      <c r="D89" s="4">
-        <v>0.01</v>
+      <c r="D89" s="9">
+        <v>-2.0434072909739399E-2</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -1953,8 +1970,8 @@
       <c r="C90" s="5">
         <v>-9.4528715068915598E-3</v>
       </c>
-      <c r="D90" s="4">
-        <v>0.01</v>
+      <c r="D90" s="9">
+        <v>-2.0860334505955699E-2</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -1967,8 +1984,8 @@
       <c r="C91" s="5">
         <v>-5.3831365249027404E-3</v>
       </c>
-      <c r="D91" s="4">
-        <v>0.01</v>
+      <c r="D91" s="9">
+        <v>-2.13047589032462E-2</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -1981,8 +1998,8 @@
       <c r="C92" s="5">
         <v>0.01</v>
       </c>
-      <c r="D92" s="4">
-        <v>0.01</v>
+      <c r="D92" s="9">
+        <v>-2.1768532234172602E-2</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -1995,8 +2012,8 @@
       <c r="C93" s="5">
         <v>0.01</v>
       </c>
-      <c r="D93" s="4">
-        <v>0.01</v>
+      <c r="D93" s="9">
+        <v>-2.2252946211073901E-2</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -2009,8 +2026,8 @@
       <c r="C94" s="5">
         <v>0.01</v>
       </c>
-      <c r="D94" s="4">
-        <v>0.01</v>
+      <c r="D94" s="9">
+        <v>-2.2759410140731198E-2</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -2023,8 +2040,8 @@
       <c r="C95" s="5">
         <v>0.01</v>
       </c>
-      <c r="D95" s="4">
-        <v>-4.1910379827012803E-2</v>
+      <c r="D95" s="9">
+        <v>-2.3289464617928801E-2</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -2037,8 +2054,8 @@
       <c r="C96" s="5">
         <v>0.01</v>
       </c>
-      <c r="D96" s="4">
-        <v>-4.3743694686354903E-2</v>
+      <c r="D96" s="9">
+        <v>-4.1689128481581197E-2</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -2051,8 +2068,8 @@
       <c r="C97" s="5">
         <v>0.01</v>
       </c>
-      <c r="D97" s="4">
-        <v>-4.5744738563587503E-2</v>
+      <c r="D97" s="9">
+        <v>-4.3502718919932397E-2</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -2065,8 +2082,8 @@
       <c r="C98" s="5">
         <v>0.01</v>
       </c>
-      <c r="D98" s="4">
-        <v>0.01</v>
+      <c r="D98" s="9">
+        <v>-4.5481278180748701E-2</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -2079,8 +2096,8 @@
       <c r="C99" s="5">
         <v>0.01</v>
       </c>
-      <c r="D99" s="4">
-        <v>0.01</v>
+      <c r="D99" s="9">
+        <v>-4.7648387759293399E-2</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -2093,8 +2110,8 @@
       <c r="C100" s="5">
         <v>-1.11250537738594E-3</v>
       </c>
-      <c r="D100" s="4">
-        <v>0.01</v>
+      <c r="D100" s="9">
+        <v>-5.0032348501186E-2</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -2107,8 +2124,8 @@
       <c r="C101" s="5">
         <v>-1.11374442404677E-3</v>
       </c>
-      <c r="D101" s="4">
-        <v>0.01</v>
+      <c r="D101" s="9">
+        <v>-5.4037323178700598E-3</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -2121,7 +2138,7 @@
       <c r="C102" s="5">
         <v>-1.11498623374773E-3</v>
       </c>
-      <c r="D102" s="4">
+      <c r="D102" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -2135,8 +2152,8 @@
       <c r="C103" s="5">
         <v>-1.1162308157407501E-3</v>
       </c>
-      <c r="D103" s="4">
-        <v>-0.148962885598692</v>
+      <c r="D103" s="9">
+        <v>0.01</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -2149,8 +2166,8 @@
       <c r="C104" s="5">
         <v>-1.1174781793204E-3</v>
       </c>
-      <c r="D104" s="4">
-        <v>-0.17503688508753801</v>
+      <c r="D104" s="9">
+        <v>0.01</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -2163,8 +2180,8 @@
       <c r="C105" s="5">
         <v>-1.1187283338222099E-3</v>
       </c>
-      <c r="D105" s="4">
-        <v>-0.21217540751032499</v>
+      <c r="D105" s="9">
+        <v>0.01</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
@@ -2177,8 +2194,8 @@
       <c r="C106" s="5">
         <v>-1.11998128862301E-3</v>
       </c>
-      <c r="D106" s="4">
-        <v>-3.6736989189779301E-2</v>
+      <c r="D106" s="9">
+        <v>0.01</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -2191,7 +2208,7 @@
       <c r="C107" s="5">
         <v>-1.1212370531426001E-3</v>
       </c>
-      <c r="D107" s="4">
+      <c r="D107" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -2205,7 +2222,7 @@
       <c r="C108" s="5">
         <v>-1.12249563684286E-3</v>
       </c>
-      <c r="D108" s="4">
+      <c r="D108" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -2219,7 +2236,7 @@
       <c r="C109" s="5">
         <v>-1.12375704922729E-3</v>
       </c>
-      <c r="D109" s="4">
+      <c r="D109" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -2233,7 +2250,7 @@
       <c r="C110" s="5">
         <v>0.01</v>
       </c>
-      <c r="D110" s="4">
+      <c r="D110" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -2247,7 +2264,7 @@
       <c r="C111" s="5">
         <v>0.01</v>
       </c>
-      <c r="D111" s="4">
+      <c r="D111" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -2261,7 +2278,7 @@
       <c r="C112" s="5">
         <v>0.01</v>
       </c>
-      <c r="D112" s="4">
+      <c r="D112" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -2275,7 +2292,7 @@
       <c r="C113" s="5">
         <v>0.01</v>
       </c>
-      <c r="D113" s="4">
+      <c r="D113" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -2289,7 +2306,7 @@
       <c r="C114" s="5">
         <v>0.01</v>
       </c>
-      <c r="D114" s="4">
+      <c r="D114" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -2303,7 +2320,7 @@
       <c r="C115" s="5">
         <v>0.01</v>
       </c>
-      <c r="D115" s="4">
+      <c r="D115" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -2317,7 +2334,7 @@
       <c r="C116" s="5">
         <v>0.01</v>
       </c>
-      <c r="D116" s="4">
+      <c r="D116" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -2331,7 +2348,7 @@
       <c r="C117" s="5">
         <v>0.01</v>
       </c>
-      <c r="D117" s="4">
+      <c r="D117" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -2345,7 +2362,7 @@
       <c r="C118" s="5">
         <v>0.01</v>
       </c>
-      <c r="D118" s="4">
+      <c r="D118" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -2359,7 +2376,7 @@
       <c r="C119" s="5">
         <v>0.01</v>
       </c>
-      <c r="D119" s="4">
+      <c r="D119" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -2373,7 +2390,7 @@
       <c r="C120" s="5">
         <v>0.01</v>
       </c>
-      <c r="D120" s="4">
+      <c r="D120" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -2387,7 +2404,7 @@
       <c r="C121" s="5">
         <v>0.01</v>
       </c>
-      <c r="D121" s="4">
+      <c r="D121" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -2401,7 +2418,7 @@
       <c r="C122" s="5">
         <v>0.01</v>
       </c>
-      <c r="D122" s="4">
+      <c r="D122" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -2415,7 +2432,7 @@
       <c r="C123" s="5">
         <v>0.01</v>
       </c>
-      <c r="D123" s="4">
+      <c r="D123" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -2429,7 +2446,7 @@
       <c r="C124" s="5">
         <v>0.01</v>
       </c>
-      <c r="D124" s="4">
+      <c r="D124" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -2443,7 +2460,7 @@
       <c r="C125" s="5">
         <v>0.01</v>
       </c>
-      <c r="D125" s="4">
+      <c r="D125" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -2457,7 +2474,7 @@
       <c r="C126" s="5">
         <v>0.01</v>
       </c>
-      <c r="D126" s="4">
+      <c r="D126" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -2471,7 +2488,7 @@
       <c r="C127" s="5">
         <v>0.01</v>
       </c>
-      <c r="D127" s="4">
+      <c r="D127" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -2485,7 +2502,7 @@
       <c r="C128" s="5">
         <v>0.01</v>
       </c>
-      <c r="D128" s="4">
+      <c r="D128" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -2499,7 +2516,7 @@
       <c r="C129" s="5">
         <v>0.01</v>
       </c>
-      <c r="D129" s="4">
+      <c r="D129" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -2513,7 +2530,7 @@
       <c r="C130" s="5">
         <v>0.01</v>
       </c>
-      <c r="D130" s="4">
+      <c r="D130" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -2527,7 +2544,7 @@
       <c r="C131" s="5">
         <v>0.01</v>
       </c>
-      <c r="D131" s="4">
+      <c r="D131" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -2541,7 +2558,7 @@
       <c r="C132" s="5">
         <v>0.01</v>
       </c>
-      <c r="D132" s="4">
+      <c r="D132" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -2555,7 +2572,7 @@
       <c r="C133" s="5">
         <v>0.01</v>
       </c>
-      <c r="D133" s="4">
+      <c r="D133" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -2569,7 +2586,7 @@
       <c r="C134" s="5">
         <v>0.01</v>
       </c>
-      <c r="D134" s="4">
+      <c r="D134" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -2583,7 +2600,7 @@
       <c r="C135" s="5">
         <v>0.01</v>
       </c>
-      <c r="D135" s="4">
+      <c r="D135" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -2597,7 +2614,7 @@
       <c r="C136" s="5">
         <v>0.01</v>
       </c>
-      <c r="D136" s="4">
+      <c r="D136" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -2611,7 +2628,7 @@
       <c r="C137" s="5">
         <v>0.01</v>
       </c>
-      <c r="D137" s="4">
+      <c r="D137" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -2625,7 +2642,7 @@
       <c r="C138" s="5">
         <v>0.01</v>
       </c>
-      <c r="D138" s="4">
+      <c r="D138" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -2639,7 +2656,7 @@
       <c r="C139" s="5">
         <v>0.01</v>
       </c>
-      <c r="D139" s="4">
+      <c r="D139" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -2653,7 +2670,7 @@
       <c r="C140" s="5">
         <v>0.01</v>
       </c>
-      <c r="D140" s="4">
+      <c r="D140" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -2667,7 +2684,7 @@
       <c r="C141" s="5">
         <v>0.01</v>
       </c>
-      <c r="D141" s="4">
+      <c r="D141" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -2681,7 +2698,7 @@
       <c r="C142" s="5">
         <v>0.01</v>
       </c>
-      <c r="D142" s="4">
+      <c r="D142" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -2695,7 +2712,7 @@
       <c r="C143" s="5">
         <v>0.01</v>
       </c>
-      <c r="D143" s="4">
+      <c r="D143" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -2709,7 +2726,7 @@
       <c r="C144" s="5">
         <v>-8.1033650404961407E-3</v>
       </c>
-      <c r="D144" s="4">
+      <c r="D144" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -2723,7 +2740,7 @@
       <c r="C145" s="5">
         <v>-2.1359194146556199E-2</v>
       </c>
-      <c r="D145" s="4">
+      <c r="D145" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -2737,7 +2754,7 @@
       <c r="C146" s="5">
         <v>-2.1825366384482001E-2</v>
       </c>
-      <c r="D146" s="4">
+      <c r="D146" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -2751,8 +2768,8 @@
       <c r="C147" s="5">
         <v>-2.2312341410665699E-2</v>
       </c>
-      <c r="D147" s="4">
-        <v>0.01</v>
+      <c r="D147" s="9">
+        <v>-1.42966864165021E-2</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
@@ -2765,8 +2782,8 @@
       <c r="C148" s="5">
         <v>-2.2821543480316502E-2</v>
       </c>
-      <c r="D148" s="4">
-        <v>0.01</v>
+      <c r="D148" s="9">
+        <v>-2.5267985351247399E-2</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
@@ -2779,8 +2796,8 @@
       <c r="C149" s="5">
         <v>-2.3354529899889401E-2</v>
       </c>
-      <c r="D149" s="4">
-        <v>0.01</v>
+      <c r="D149" s="9">
+        <v>-2.5923007525666099E-2</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
@@ -2793,8 +2810,8 @@
       <c r="C150" s="5">
         <v>-2.3913006935357601E-2</v>
       </c>
-      <c r="D150" s="4">
-        <v>-6.1644258344576404E-3</v>
+      <c r="D150" s="9">
+        <v>-2.6612893771176E-2</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
@@ -2807,8 +2824,8 @@
       <c r="C151" s="5">
         <v>-2.4498848058898098E-2</v>
       </c>
-      <c r="D151" s="4">
-        <v>-6.2026616823749299E-3</v>
+      <c r="D151" s="9">
+        <v>-2.73405036915703E-2</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
@@ -2821,8 +2838,8 @@
       <c r="C152" s="5">
         <v>-2.5114114945071001E-2</v>
       </c>
-      <c r="D152" s="4">
-        <v>-6.2413748188089296E-3</v>
+      <c r="D152" s="9">
+        <v>-2.8109018413264499E-2</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
@@ -2835,8 +2852,8 @@
       <c r="C153" s="5">
         <v>-2.5761081712303499E-2</v>
       </c>
-      <c r="D153" s="4">
-        <v>-6.2805742366974799E-3</v>
+      <c r="D153" s="9">
+        <v>-2.61636664964605E-2</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
@@ -2849,8 +2866,8 @@
       <c r="C154" s="5">
         <v>-3.9663394515557497E-2</v>
       </c>
-      <c r="D154" s="4">
-        <v>-6.32026915632966E-3</v>
+      <c r="D154" s="9">
+        <v>-2.61584883147278E-2</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
@@ -2863,8 +2880,8 @@
       <c r="C155" s="5">
         <v>-4.0740670027647398E-2</v>
       </c>
-      <c r="D155" s="4">
-        <v>-6.3604690325760301E-3</v>
+      <c r="D155" s="9">
+        <v>-2.6861135000765899E-2</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
@@ -2877,8 +2894,8 @@
       <c r="C156" s="5">
         <v>-4.1878097872177902E-2</v>
       </c>
-      <c r="D156" s="4">
-        <v>-6.4011835623962697E-3</v>
+      <c r="D156" s="9">
+        <v>-2.7602571397440601E-2</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
@@ -2891,8 +2908,8 @@
       <c r="C157" s="5">
         <v>-4.3080860877680101E-2</v>
       </c>
-      <c r="D157" s="4">
-        <v>-6.44242269263873E-3</v>
+      <c r="D157" s="9">
+        <v>-2.8386100770657698E-2</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
@@ -2905,8 +2922,8 @@
       <c r="C158" s="5">
         <v>-4.4354754894255097E-2</v>
       </c>
-      <c r="D158" s="4">
-        <v>-6.4841966281393697E-3</v>
+      <c r="D158" s="9">
+        <v>-2.92154124114248E-2</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
@@ -2919,8 +2936,8 @@
       <c r="C159" s="5">
         <v>-4.5706282190033497E-2</v>
       </c>
-      <c r="D159" s="4">
-        <v>-6.5265158401436301E-3</v>
+      <c r="D159" s="9">
+        <v>-2.30443250631737E-2</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
@@ -2933,8 +2950,8 @@
       <c r="C160" s="5">
         <v>-4.71427624594941E-2</v>
       </c>
-      <c r="D160" s="4">
-        <v>-1.120121032897E-2</v>
+      <c r="D160" s="9">
+        <v>-6.7491197684157499E-3</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
@@ -2947,8 +2964,8 @@
       <c r="C161" s="5">
         <v>-4.8672465443990003E-2</v>
       </c>
-      <c r="D161" s="4">
-        <v>-2.00274925281239E-2</v>
+      <c r="D161" s="9">
+        <v>-6.7949799015956103E-3</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
@@ -2961,8 +2978,8 @@
       <c r="C162" s="5">
         <v>-5.0304770238042598E-2</v>
       </c>
-      <c r="D162" s="4">
-        <v>-2.04367901909723E-2</v>
+      <c r="D162" s="9">
+        <v>-6.8414675360000104E-3</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
@@ -2975,8 +2992,8 @@
       <c r="C163" s="5">
         <v>-5.2050357763441503E-2</v>
       </c>
-      <c r="D163" s="4">
-        <v>-2.08631663442694E-2</v>
+      <c r="D163" s="9">
+        <v>-6.8885956394359998E-3</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
@@ -2984,13 +3001,13 @@
         <v>-379</v>
       </c>
       <c r="B164" s="4">
-        <v>2.9746574052886801E-3</v>
+        <v>0.01</v>
       </c>
       <c r="C164" s="5">
         <v>-5.39214447572662E-2</v>
       </c>
-      <c r="D164" s="4">
-        <v>-2.1307712698718999E-2</v>
+      <c r="D164" s="9">
+        <v>-6.9363775395081496E-3</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
@@ -2998,13 +3015,13 @@
         <v>-378</v>
       </c>
       <c r="B165" s="4">
-        <v>2.96583506205894E-3</v>
+        <v>0.01</v>
       </c>
       <c r="C165" s="5">
         <v>-3.4098893337998801E-2</v>
       </c>
-      <c r="D165" s="4">
-        <v>-2.1771616038248801E-2</v>
+      <c r="D165" s="9">
+        <v>-6.9848269361856303E-3</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
@@ -3012,13 +3029,13 @@
         <v>-377</v>
       </c>
       <c r="B166" s="4">
-        <v>2.9570648953112198E-3</v>
+        <v>0.01</v>
       </c>
       <c r="C166" s="5">
         <v>0.01</v>
       </c>
-      <c r="D166" s="4">
-        <v>-2.22561687998412E-2</v>
+      <c r="D166" s="9">
+        <v>-7.0339579148973597E-3</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
@@ -3026,13 +3043,13 @@
         <v>-376</v>
       </c>
       <c r="B167" s="4">
-        <v>2.9483464435437999E-3</v>
+        <v>0.01</v>
       </c>
       <c r="C167" s="5">
         <v>0.01</v>
       </c>
-      <c r="D167" s="4">
-        <v>-2.27627810983193E-2</v>
+      <c r="D167" s="9">
+        <v>-7.0837849601856897E-3</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
@@ -3040,13 +3057,13 @@
         <v>-375</v>
       </c>
       <c r="B168" s="4">
-        <v>2.9396792506801699E-3</v>
+        <v>0.01</v>
       </c>
       <c r="C168" s="5">
         <v>0.01</v>
       </c>
-      <c r="D168" s="4">
-        <v>-2.3292994431692401E-2</v>
+      <c r="D168" s="9">
+        <v>-7.1343229699413202E-3</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
@@ -3054,13 +3071,13 @@
         <v>-374</v>
       </c>
       <c r="B169" s="4">
-        <v>2.9310628659904299E-3</v>
+        <v>0.01</v>
       </c>
       <c r="C169" s="5">
         <v>0.01</v>
       </c>
-      <c r="D169" s="4">
-        <v>-2.3848497347614499E-2</v>
+      <c r="D169" s="9">
+        <v>-7.1855872702559801E-3</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
@@ -3068,13 +3085,13 @@
         <v>-373</v>
       </c>
       <c r="B170" s="4">
-        <v>2.92249684401513E-3</v>
+        <v>0.01</v>
       </c>
       <c r="C170" s="5">
         <v>0.01</v>
       </c>
-      <c r="D170" s="4">
-        <v>-2.4431143406339801E-2</v>
+      <c r="D170" s="9">
+        <v>0.01</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
@@ -3087,8 +3104,8 @@
       <c r="C171" s="5">
         <v>0.01</v>
       </c>
-      <c r="D171" s="4">
-        <v>-2.5042971842751002E-2</v>
+      <c r="D171" s="9">
+        <v>0.01</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
@@ -3101,8 +3118,8 @@
       <c r="C172" s="5">
         <v>0.01</v>
       </c>
-      <c r="D172" s="4">
-        <v>-2.56862314127673E-2</v>
+      <c r="D172" s="9">
+        <v>0.01</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
@@ -3115,8 +3132,8 @@
       <c r="C173" s="5">
         <v>0.01</v>
       </c>
-      <c r="D173" s="4">
-        <v>-2.6363408011787302E-2</v>
+      <c r="D173" s="9">
+        <v>0.01</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
@@ -3129,8 +3146,8 @@
       <c r="C174" s="5">
         <v>0.01</v>
       </c>
-      <c r="D174" s="4">
-        <v>-2.70772567801215E-2</v>
+      <c r="D174" s="9">
+        <v>0.01</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
@@ -3143,8 +3160,8 @@
       <c r="C175" s="5">
         <v>0.01</v>
       </c>
-      <c r="D175" s="4">
-        <v>-2.78308395695527E-2</v>
+      <c r="D175" s="9">
+        <v>0.01</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
@@ -3157,8 +3174,8 @@
       <c r="C176" s="5">
         <v>0.01</v>
       </c>
-      <c r="D176" s="4">
-        <v>-2.8627568845354001E-2</v>
+      <c r="D176" s="9">
+        <v>0.01</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
@@ -3171,8 +3188,8 @@
       <c r="C177" s="5">
         <v>0.01</v>
       </c>
-      <c r="D177" s="4">
-        <v>-2.9471259351395399E-2</v>
+      <c r="D177" s="9">
+        <v>0.01</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
@@ -3185,8 +3202,8 @@
       <c r="C178" s="5">
         <v>0.01</v>
       </c>
-      <c r="D178" s="4">
-        <v>-3.0366189188482901E-2</v>
+      <c r="D178" s="9">
+        <v>0.01</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
@@ -3199,8 +3216,8 @@
       <c r="C179" s="5">
         <v>0.01</v>
       </c>
-      <c r="D179" s="4">
-        <v>-3.1317172369503203E-2</v>
+      <c r="D179" s="9">
+        <v>0.01</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
@@ -3213,8 +3230,8 @@
       <c r="C180" s="5">
         <v>0.01</v>
       </c>
-      <c r="D180" s="4">
-        <v>-3.2329645448664297E-2</v>
+      <c r="D180" s="9">
+        <v>0.01</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
@@ -3227,8 +3244,8 @@
       <c r="C181" s="5">
         <v>0.01</v>
       </c>
-      <c r="D181" s="4">
-        <v>-3.3409771516307002E-2</v>
+      <c r="D181" s="9">
+        <v>0.01</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
@@ -3241,8 +3258,8 @@
       <c r="C182" s="5">
         <v>0.01</v>
       </c>
-      <c r="D182" s="4">
-        <v>-3.3409771516307002E-2</v>
+      <c r="D182" s="9">
+        <v>0.01</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
@@ -3255,8 +3272,8 @@
       <c r="C183" s="5">
         <v>0.01</v>
       </c>
-      <c r="D183" s="4">
-        <v>-3.3409771516307002E-2</v>
+      <c r="D183" s="9">
+        <v>0.01</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
@@ -3269,8 +3286,8 @@
       <c r="C184" s="5">
         <v>0.01</v>
       </c>
-      <c r="D184" s="4">
-        <v>-3.3409771516307002E-2</v>
+      <c r="D184" s="9">
+        <v>0.01</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
@@ -3283,8 +3300,8 @@
       <c r="C185" s="5">
         <v>0.01</v>
       </c>
-      <c r="D185" s="4">
-        <v>-3.3409771516307002E-2</v>
+      <c r="D185" s="9">
+        <v>0.01</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
@@ -3297,8 +3314,8 @@
       <c r="C186" s="5">
         <v>0.01</v>
       </c>
-      <c r="D186" s="4">
-        <v>-3.3409771516307002E-2</v>
+      <c r="D186" s="9">
+        <v>0.01</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
@@ -3311,8 +3328,8 @@
       <c r="C187" s="5">
         <v>0.01</v>
       </c>
-      <c r="D187" s="4">
-        <v>-3.3409771516307002E-2</v>
+      <c r="D187" s="9">
+        <v>0.01</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
@@ -3325,8 +3342,8 @@
       <c r="C188" s="5">
         <v>0.01</v>
       </c>
-      <c r="D188" s="4">
-        <v>-3.3409771516307002E-2</v>
+      <c r="D188" s="9">
+        <v>0.01</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
@@ -3339,8 +3356,8 @@
       <c r="C189" s="5">
         <v>0.01</v>
       </c>
-      <c r="D189" s="4">
-        <v>-3.3409771516307002E-2</v>
+      <c r="D189" s="9">
+        <v>0.01</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
@@ -3353,8 +3370,8 @@
       <c r="C190" s="5">
         <v>0.01</v>
       </c>
-      <c r="D190" s="4">
-        <v>-0.23340977151630701</v>
+      <c r="D190" s="9">
+        <v>0.01</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
@@ -3367,7 +3384,7 @@
       <c r="C191" s="5">
         <v>-1.21210835642652E-2</v>
       </c>
-      <c r="D191" s="4">
+      <c r="D191" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -3381,7 +3398,7 @@
       <c r="C192" s="5">
         <v>-1.2269806919250901E-2</v>
       </c>
-      <c r="D192" s="4">
+      <c r="D192" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -3395,7 +3412,7 @@
       <c r="C193" s="5">
         <v>-1.24222252242601E-2</v>
       </c>
-      <c r="D193" s="4">
+      <c r="D193" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -3409,7 +3426,7 @@
       <c r="C194" s="5">
         <v>-1.25784779098344E-2</v>
       </c>
-      <c r="D194" s="4">
+      <c r="D194" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -3423,7 +3440,7 @@
       <c r="C195" s="5">
         <v>-1.2738711511177401E-2</v>
       </c>
-      <c r="D195" s="4">
+      <c r="D195" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -3437,7 +3454,7 @@
       <c r="C196" s="5">
         <v>-1.2903080126514799E-2</v>
       </c>
-      <c r="D196" s="4">
+      <c r="D196" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -3451,7 +3468,7 @@
       <c r="C197" s="5">
         <v>-1.3071745911402999E-2</v>
       </c>
-      <c r="D197" s="4">
+      <c r="D197" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -3465,7 +3482,7 @@
       <c r="C198" s="5">
         <v>-1.3244879612322499E-2</v>
       </c>
-      <c r="D198" s="4">
+      <c r="D198" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -3479,7 +3496,7 @@
       <c r="C199" s="5">
         <v>-1.3422661143241499E-2</v>
       </c>
-      <c r="D199" s="4">
+      <c r="D199" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -3493,8 +3510,8 @@
       <c r="C200" s="5">
         <v>-1.3605280209249299E-2</v>
       </c>
-      <c r="D200" s="4">
-        <v>0.01</v>
+      <c r="D200" s="9">
+        <v>-1.56754931751313E-2</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
@@ -3507,8 +3524,8 @@
       <c r="C201" s="5">
         <v>-1.3792936981795101E-2</v>
       </c>
-      <c r="D201" s="4">
-        <v>0.01</v>
+      <c r="D201" s="9">
+        <v>-1.5925127401019101E-2</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
@@ -3521,8 +3538,8 @@
       <c r="C202" s="5">
         <v>-1.3985842830594701E-2</v>
       </c>
-      <c r="D202" s="4">
-        <v>0.01</v>
+      <c r="D202" s="9">
+        <v>-1.6182841208982699E-2</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
@@ -3535,8 +3552,8 @@
       <c r="C203" s="5">
         <v>-1.4184221117823E-2</v>
       </c>
-      <c r="D203" s="4">
-        <v>0.01</v>
+      <c r="D203" s="9">
+        <v>-1.64490333029658E-2</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
@@ -3549,8 +3566,8 @@
       <c r="C204" s="5">
         <v>-1.4388308060869701E-2</v>
       </c>
-      <c r="D204" s="4">
-        <v>0.01</v>
+      <c r="D204" s="9">
+        <v>-1.67241290588175E-2</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
@@ -3563,8 +3580,8 @@
       <c r="C205" s="5">
         <v>-1.45983536706649E-2</v>
       </c>
-      <c r="D205" s="4">
-        <v>0.01</v>
+      <c r="D205" s="9">
+        <v>-1.7008582792547501E-2</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
@@ -3577,8 +3594,8 @@
       <c r="C206" s="5">
         <v>-1.48146227734085E-2</v>
       </c>
-      <c r="D206" s="4">
-        <v>0.01</v>
+      <c r="D206" s="9">
+        <v>-1.7302880264068801E-2</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
@@ -3591,8 +3608,8 @@
       <c r="C207" s="5">
         <v>-1.5037396124487099E-2</v>
       </c>
-      <c r="D207" s="4">
-        <v>0.01</v>
+      <c r="D207" s="9">
+        <v>-1.76075414454436E-2</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
@@ -3605,8 +3622,8 @@
       <c r="C208" s="5">
         <v>-1.52669716244249E-2</v>
       </c>
-      <c r="D208" s="4">
-        <v>0.01</v>
+      <c r="D208" s="9">
+        <v>-1.7923123586830601E-2</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
@@ -3619,8 +3636,8 @@
       <c r="C209" s="5">
         <v>-1.55036656479467E-2</v>
       </c>
-      <c r="D209" s="4">
-        <v>0.01</v>
+      <c r="D209" s="9">
+        <v>-1.8250224618149201E-2</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
@@ -3633,8 +3650,8 @@
       <c r="C210" s="5">
         <v>-1.57478144986192E-2</v>
       </c>
-      <c r="D210" s="4">
-        <v>0.01</v>
+      <c r="D210" s="9">
+        <v>-1.85894869301606E-2</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
@@ -3647,8 +3664,8 @@
       <c r="C211" s="5">
         <v>-1.5999776003135801E-2</v>
       </c>
-      <c r="D211" s="4">
-        <v>0.01</v>
+      <c r="D211" s="9">
+        <v>-1.89416015852664E-2</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
@@ -3661,8 +3678,8 @@
       <c r="C212" s="5">
         <v>-1.6259931261140701E-2</v>
       </c>
-      <c r="D212" s="4">
-        <v>0.01</v>
+      <c r="D212" s="9">
+        <v>-1.9307313016099299E-2</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
@@ -3675,8 +3692,8 @@
       <c r="C213" s="5">
         <v>-1.65286865685828E-2</v>
       </c>
-      <c r="D213" s="4">
-        <v>0.01</v>
+      <c r="D213" s="9">
+        <v>-1.9687424279137299E-2</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
@@ -3689,8 +3706,8 @@
       <c r="C214" s="5">
         <v>-1.68064755350236E-2</v>
       </c>
-      <c r="D214" s="4">
-        <v>0.01</v>
+      <c r="D214" s="9">
+        <v>-2.00828029413582E-2</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
@@ -3703,8 +3720,8 @@
       <c r="C215" s="5">
         <v>-1.7093761418098499E-2</v>
       </c>
-      <c r="D215" s="4">
-        <v>0.01</v>
+      <c r="D215" s="9">
+        <v>-2.04943876907553E-2</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
@@ -3717,8 +3734,8 @@
       <c r="C216" s="5">
         <v>-1.73910397015699E-2</v>
       </c>
-      <c r="D216" s="4">
-        <v>0.01</v>
+      <c r="D216" s="9">
+        <v>-2.0923195776733301E-2</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
@@ -3731,8 +3748,8 @@
       <c r="C217" s="5">
         <v>0.01</v>
       </c>
-      <c r="D217" s="4">
-        <v>0.01</v>
+      <c r="D217" s="9">
+        <v>-2.1370331404524202E-2</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
@@ -3745,8 +3762,8 @@
       <c r="C218" s="5">
         <v>0.01</v>
       </c>
-      <c r="D218" s="4">
-        <v>0.01</v>
+      <c r="D218" s="9">
+        <v>-2.0009082894772E-2</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
@@ -3759,8 +3776,8 @@
       <c r="C219" s="5">
         <v>0.01</v>
       </c>
-      <c r="D219" s="4">
-        <v>0.01</v>
+      <c r="D219" s="9">
+        <v>-1.76197698278171E-2</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
@@ -3773,8 +3790,8 @@
       <c r="C220" s="5">
         <v>0.01</v>
       </c>
-      <c r="D220" s="4">
-        <v>0.01</v>
+      <c r="D220" s="9">
+        <v>-1.79357943967671E-2</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
@@ -3787,8 +3804,8 @@
       <c r="C221" s="5">
         <v>0.01</v>
       </c>
-      <c r="D221" s="4">
-        <v>0.01</v>
+      <c r="D221" s="9">
+        <v>-1.8263362308119199E-2</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
@@ -3801,8 +3818,8 @@
       <c r="C222" s="5">
         <v>0.01</v>
       </c>
-      <c r="D222" s="4">
-        <v>0.01</v>
+      <c r="D222" s="9">
+        <v>-1.8603117788348399E-2</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
@@ -3815,8 +3832,8 @@
       <c r="C223" s="5">
         <v>0.01</v>
       </c>
-      <c r="D223" s="4">
-        <v>0.01</v>
+      <c r="D223" s="9">
+        <v>-1.8955753911123901E-2</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
@@ -3829,8 +3846,8 @@
       <c r="C224" s="5">
         <v>0.01</v>
       </c>
-      <c r="D224" s="4">
-        <v>0.01</v>
+      <c r="D224" s="9">
+        <v>-1.9322017316440902E-2</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
@@ -3843,8 +3860,8 @@
       <c r="C225" s="5">
         <v>0.01</v>
       </c>
-      <c r="D225" s="4">
-        <v>0.01</v>
+      <c r="D225" s="9">
+        <v>-1.9702713487629999E-2</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
@@ -3857,8 +3874,8 @@
       <c r="C226" s="5">
         <v>0.01</v>
       </c>
-      <c r="D226" s="4">
-        <v>0.01</v>
+      <c r="D226" s="9">
+        <v>-1.6092684641020899E-2</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
@@ -3871,7 +3888,7 @@
       <c r="C227" s="5">
         <v>0.01</v>
       </c>
-      <c r="D227" s="4">
+      <c r="D227" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -3885,7 +3902,7 @@
       <c r="C228" s="5">
         <v>0.01</v>
       </c>
-      <c r="D228" s="4">
+      <c r="D228" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -3899,7 +3916,7 @@
       <c r="C229" s="5">
         <v>0.01</v>
       </c>
-      <c r="D229" s="4">
+      <c r="D229" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -3913,7 +3930,7 @@
       <c r="C230" s="5">
         <v>0.01</v>
       </c>
-      <c r="D230" s="4">
+      <c r="D230" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -3927,7 +3944,7 @@
       <c r="C231" s="5">
         <v>0.01</v>
       </c>
-      <c r="D231" s="4">
+      <c r="D231" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -3941,7 +3958,7 @@
       <c r="C232" s="5">
         <v>0.01</v>
       </c>
-      <c r="D232" s="4">
+      <c r="D232" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -3955,7 +3972,7 @@
       <c r="C233" s="5">
         <v>0.01</v>
       </c>
-      <c r="D233" s="4">
+      <c r="D233" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -3969,7 +3986,7 @@
       <c r="C234" s="5">
         <v>0.01</v>
       </c>
-      <c r="D234" s="4">
+      <c r="D234" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -3983,7 +4000,7 @@
       <c r="C235" s="5">
         <v>0.01</v>
       </c>
-      <c r="D235" s="4">
+      <c r="D235" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -3997,7 +4014,7 @@
       <c r="C236" s="5">
         <v>0.01</v>
       </c>
-      <c r="D236" s="4">
+      <c r="D236" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -4011,7 +4028,7 @@
       <c r="C237" s="5">
         <v>0.01</v>
       </c>
-      <c r="D237" s="4">
+      <c r="D237" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -4025,7 +4042,7 @@
       <c r="C238" s="5">
         <v>0.01</v>
       </c>
-      <c r="D238" s="4">
+      <c r="D238" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -4039,7 +4056,7 @@
       <c r="C239" s="5">
         <v>0.01</v>
       </c>
-      <c r="D239" s="4">
+      <c r="D239" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -4053,7 +4070,7 @@
       <c r="C240" s="5">
         <v>0.01</v>
       </c>
-      <c r="D240" s="4">
+      <c r="D240" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -4067,7 +4084,7 @@
       <c r="C241" s="5">
         <v>0.01</v>
       </c>
-      <c r="D241" s="4">
+      <c r="D241" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -4081,7 +4098,7 @@
       <c r="C242" s="5">
         <v>0.01</v>
       </c>
-      <c r="D242" s="4">
+      <c r="D242" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -4095,7 +4112,7 @@
       <c r="C243" s="5">
         <v>0.01</v>
       </c>
-      <c r="D243" s="4">
+      <c r="D243" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -4109,7 +4126,7 @@
       <c r="C244" s="5">
         <v>0.01</v>
       </c>
-      <c r="D244" s="4">
+      <c r="D244" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -4123,7 +4140,7 @@
       <c r="C245" s="5">
         <v>0.01</v>
       </c>
-      <c r="D245" s="4">
+      <c r="D245" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -4137,7 +4154,7 @@
       <c r="C246" s="5">
         <v>0.01</v>
       </c>
-      <c r="D246" s="4">
+      <c r="D246" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -4151,7 +4168,7 @@
       <c r="C247" s="5">
         <v>0.01</v>
       </c>
-      <c r="D247" s="4">
+      <c r="D247" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -4165,7 +4182,7 @@
       <c r="C248" s="5">
         <v>0.01</v>
       </c>
-      <c r="D248" s="4">
+      <c r="D248" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -4179,7 +4196,7 @@
       <c r="C249" s="5">
         <v>0.01</v>
       </c>
-      <c r="D249" s="4">
+      <c r="D249" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -4193,7 +4210,7 @@
       <c r="C250" s="5">
         <v>0.01</v>
       </c>
-      <c r="D250" s="4">
+      <c r="D250" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -4207,7 +4224,7 @@
       <c r="C251" s="5">
         <v>0.01</v>
       </c>
-      <c r="D251" s="4">
+      <c r="D251" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -4221,7 +4238,7 @@
       <c r="C252" s="5">
         <v>0.01</v>
       </c>
-      <c r="D252" s="4">
+      <c r="D252" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -4235,7 +4252,7 @@
       <c r="C253" s="5">
         <v>0.01</v>
       </c>
-      <c r="D253" s="4">
+      <c r="D253" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -4249,7 +4266,7 @@
       <c r="C254" s="5">
         <v>0.01</v>
       </c>
-      <c r="D254" s="4">
+      <c r="D254" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -4263,7 +4280,7 @@
       <c r="C255" s="5">
         <v>0.01</v>
       </c>
-      <c r="D255" s="4">
+      <c r="D255" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -4277,7 +4294,7 @@
       <c r="C256" s="5">
         <v>0.01</v>
       </c>
-      <c r="D256" s="4">
+      <c r="D256" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -4291,7 +4308,7 @@
       <c r="C257" s="5">
         <v>0.01</v>
       </c>
-      <c r="D257" s="4">
+      <c r="D257" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -4305,7 +4322,7 @@
       <c r="C258" s="5">
         <v>0.01</v>
       </c>
-      <c r="D258" s="4">
+      <c r="D258" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -4319,7 +4336,7 @@
       <c r="C259" s="5">
         <v>0.01</v>
       </c>
-      <c r="D259" s="4">
+      <c r="D259" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -4333,7 +4350,7 @@
       <c r="C260" s="5">
         <v>0.01</v>
       </c>
-      <c r="D260" s="4">
+      <c r="D260" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -4347,7 +4364,7 @@
       <c r="C261" s="5">
         <v>0.01</v>
       </c>
-      <c r="D261" s="4">
+      <c r="D261" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -4361,7 +4378,7 @@
       <c r="C262" s="5">
         <v>0.01</v>
       </c>
-      <c r="D262" s="4">
+      <c r="D262" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -4375,7 +4392,7 @@
       <c r="C263" s="5">
         <v>0.01</v>
       </c>
-      <c r="D263" s="4">
+      <c r="D263" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -4389,7 +4406,7 @@
       <c r="C264" s="5">
         <v>0.01</v>
       </c>
-      <c r="D264" s="4">
+      <c r="D264" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -4403,7 +4420,7 @@
       <c r="C265" s="5">
         <v>0.01</v>
       </c>
-      <c r="D265" s="4">
+      <c r="D265" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -4417,7 +4434,7 @@
       <c r="C266" s="5">
         <v>0.01</v>
       </c>
-      <c r="D266" s="4">
+      <c r="D266" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -4431,7 +4448,7 @@
       <c r="C267" s="5">
         <v>0.01</v>
       </c>
-      <c r="D267" s="4">
+      <c r="D267" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -4445,7 +4462,7 @@
       <c r="C268" s="5">
         <v>0.01</v>
       </c>
-      <c r="D268" s="4">
+      <c r="D268" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -4459,7 +4476,7 @@
       <c r="C269" s="5">
         <v>0.01</v>
       </c>
-      <c r="D269" s="4">
+      <c r="D269" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -4473,7 +4490,7 @@
       <c r="C270" s="5">
         <v>0.01</v>
       </c>
-      <c r="D270" s="4">
+      <c r="D270" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -4487,7 +4504,7 @@
       <c r="C271" s="5">
         <v>0.01</v>
       </c>
-      <c r="D271" s="4">
+      <c r="D271" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -4501,7 +4518,7 @@
       <c r="C272" s="5">
         <v>0.01</v>
       </c>
-      <c r="D272" s="4">
+      <c r="D272" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -4515,7 +4532,7 @@
       <c r="C273" s="5">
         <v>0.01</v>
       </c>
-      <c r="D273" s="4">
+      <c r="D273" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -4529,8 +4546,8 @@
       <c r="C274" s="5">
         <v>-8.8226806029336798E-3</v>
       </c>
-      <c r="D274" s="4">
-        <v>0.01</v>
+      <c r="D274" s="9">
+        <v>-2.6313320300028298E-2</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
@@ -4543,8 +4560,8 @@
       <c r="C275" s="5">
         <v>-8.9012131636550008E-3</v>
       </c>
-      <c r="D275" s="4">
-        <v>0.01</v>
+      <c r="D275" s="9">
+        <v>-4.2921649382225799E-2</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
@@ -4557,8 +4574,8 @@
       <c r="C276" s="5">
         <v>-8.9811563507895507E-3</v>
       </c>
-      <c r="D276" s="4">
-        <v>0.01</v>
+      <c r="D276" s="9">
+        <v>-4.4846536706760601E-2</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
@@ -4571,8 +4588,8 @@
       <c r="C277" s="5">
         <v>-9.0625485159479009E-3</v>
       </c>
-      <c r="D277" s="4">
-        <v>0.01</v>
+      <c r="D277" s="9">
+        <v>-4.6952179341040803E-2</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.2">
@@ -4585,8 +4602,8 @@
       <c r="C278" s="5">
         <v>-9.1454294137089907E-3</v>
       </c>
-      <c r="D278" s="4">
-        <v>0.01</v>
+      <c r="D278" s="9">
+        <v>-4.9265292174507203E-2</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
@@ -4599,8 +4616,8 @@
       <c r="C279" s="5">
         <v>-9.22984026636464E-3</v>
       </c>
-      <c r="D279" s="4">
-        <v>0.01</v>
+      <c r="D279" s="9">
+        <v>-5.1818127358772899E-2</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
@@ -4613,8 +4630,8 @@
       <c r="C280" s="5">
         <v>-9.3158238322862408E-3</v>
       </c>
-      <c r="D280" s="4">
-        <v>0.01</v>
+      <c r="D280" s="9">
+        <v>-5.4649987364164598E-2</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
@@ -4627,8 +4644,8 @@
       <c r="C281" s="5">
         <v>-9.4034244781448003E-3</v>
       </c>
-      <c r="D281" s="4">
-        <v>0.01</v>
+      <c r="D281" s="9">
+        <v>-5.7809262848358897E-2</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
@@ -4641,8 +4658,8 @@
       <c r="C282" s="5">
         <v>-2.7979806275387799E-2</v>
       </c>
-      <c r="D282" s="4">
-        <v>0.01</v>
+      <c r="D282" s="9">
+        <v>-6.1356220740530397E-2</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
@@ -4655,8 +4672,8 @@
       <c r="C283" s="5">
         <v>-3.0851606480792E-2</v>
       </c>
-      <c r="D283" s="4">
-        <v>0.01</v>
+      <c r="D283" s="9">
+        <v>-6.5366885815763096E-2</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
@@ -4669,8 +4686,8 @@
       <c r="C284" s="5">
         <v>-3.1833728133998498E-2</v>
       </c>
-      <c r="D284" s="4">
-        <v>0.01</v>
+      <c r="D284" s="9">
+        <v>-6.9277958217500199E-2</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
@@ -4683,8 +4700,8 @@
       <c r="C285" s="5">
         <v>-3.2880434961490401E-2</v>
       </c>
-      <c r="D285" s="4">
-        <v>0.01</v>
+      <c r="D285" s="9">
+        <v>-7.33699921445405E-2</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
@@ -4697,8 +4714,8 @@
       <c r="C286" s="5">
         <v>-3.3998314324435203E-2</v>
       </c>
-      <c r="D286" s="4">
-        <v>0.01</v>
+      <c r="D286" s="9">
+        <v>-7.9179382841641097E-2</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
@@ -4711,8 +4728,8 @@
       <c r="C287" s="5">
         <v>-3.5194880949569601E-2</v>
       </c>
-      <c r="D287" s="4">
-        <v>0.01</v>
+      <c r="D287" s="9">
+        <v>-8.5987847541889401E-2</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
@@ -4725,8 +4742,8 @@
       <c r="C288" s="5">
         <v>-3.6478746074864198E-2</v>
       </c>
-      <c r="D288" s="4">
-        <v>0.01</v>
+      <c r="D288" s="9">
+        <v>-9.4077356970185405E-2</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.2">
@@ -4739,8 +4756,8 @@
       <c r="C289" s="5">
         <v>-3.7859825018139601E-2</v>
       </c>
-      <c r="D289" s="4">
-        <v>0.01</v>
+      <c r="D289" s="9">
+        <v>-0.103847009117189</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.2">
@@ -4753,8 +4770,8 @@
       <c r="C290" s="5">
         <v>-3.9349593752130298E-2</v>
       </c>
-      <c r="D290" s="4">
-        <v>-0.100205031250716</v>
+      <c r="D290" s="9">
+        <v>-0.11588089330024801</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.2">
@@ -4767,8 +4784,8 @@
       <c r="C291" s="5">
         <v>-4.0961408537599699E-2</v>
       </c>
-      <c r="D291" s="4">
-        <v>-0.111364293790174</v>
+      <c r="D291" s="9">
+        <v>-0.13106932360370499</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
@@ -4781,8 +4798,8 @@
       <c r="C292" s="5">
         <v>-4.2710907467382903E-2</v>
       </c>
-      <c r="D292" s="4">
-        <v>-0.125320525623667</v>
+      <c r="D292" s="9">
+        <v>-0.15083979328165401</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.2">
@@ -4795,8 +4812,8 @@
       <c r="C293" s="5">
         <v>-4.46165195034098E-2</v>
       </c>
-      <c r="D293" s="4">
-        <v>-0.100167260883364</v>
+      <c r="D293" s="9">
+        <v>-0.17763408139977199</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.2">
@@ -4809,8 +4826,8 @@
       <c r="C294" s="5">
         <v>-4.6700116146260802E-2</v>
       </c>
-      <c r="D294" s="4">
-        <v>-8.57474168040505E-2</v>
+      <c r="D294" s="9">
+        <v>0.01</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.2">
@@ -4823,8 +4840,8 @@
       <c r="C295" s="5">
         <v>-4.8987854648082398E-2</v>
       </c>
-      <c r="D295" s="4">
-        <v>-9.3789635796601697E-2</v>
+      <c r="D295" s="9">
+        <v>0.01</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.2">
@@ -4837,8 +4854,8 @@
       <c r="C296" s="5">
         <v>-5.1511281835370203E-2</v>
       </c>
-      <c r="D296" s="4">
-        <v>-0.103496538443419</v>
+      <c r="D296" s="9">
+        <v>0.01</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.2">
@@ -4851,8 +4868,8 @@
       <c r="C297" s="5">
         <v>-5.4308797615480998E-2</v>
       </c>
-      <c r="D297" s="4">
-        <v>-0.115444661266249</v>
+      <c r="D297" s="9">
+        <v>0.01</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.2">
@@ -4865,8 +4882,8 @@
       <c r="C298" s="5">
         <v>-5.7427622757348001E-2</v>
       </c>
-      <c r="D298" s="4">
-        <v>-0.13051151941664699</v>
+      <c r="D298" s="9">
+        <v>0.01</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.2">
@@ -4879,7 +4896,7 @@
       <c r="C299" s="5">
         <v>-9.8523307900760804E-3</v>
       </c>
-      <c r="D299" s="4">
+      <c r="D299" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -4893,7 +4910,7 @@
       <c r="C300" s="5">
         <v>0.01</v>
       </c>
-      <c r="D300" s="4">
+      <c r="D300" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -4907,7 +4924,7 @@
       <c r="C301" s="5">
         <v>0.01</v>
       </c>
-      <c r="D301" s="4">
+      <c r="D301" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -4921,7 +4938,7 @@
       <c r="C302" s="5">
         <v>0.01</v>
       </c>
-      <c r="D302" s="4">
+      <c r="D302" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -4935,7 +4952,7 @@
       <c r="C303" s="5">
         <v>0.01</v>
       </c>
-      <c r="D303" s="4">
+      <c r="D303" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -4949,7 +4966,7 @@
       <c r="C304" s="5">
         <v>0.01</v>
       </c>
-      <c r="D304" s="4">
+      <c r="D304" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -4963,7 +4980,7 @@
       <c r="C305" s="5">
         <v>0.01</v>
       </c>
-      <c r="D305" s="4">
+      <c r="D305" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -4977,7 +4994,7 @@
       <c r="C306" s="5">
         <v>0.01</v>
       </c>
-      <c r="D306" s="4">
+      <c r="D306" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -4991,7 +5008,7 @@
       <c r="C307" s="5">
         <v>0.01</v>
       </c>
-      <c r="D307" s="4">
+      <c r="D307" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -5005,7 +5022,7 @@
       <c r="C308" s="5">
         <v>0.01</v>
       </c>
-      <c r="D308" s="4">
+      <c r="D308" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -5019,7 +5036,7 @@
       <c r="C309" s="5">
         <v>0.01</v>
       </c>
-      <c r="D309" s="4">
+      <c r="D309" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -5033,7 +5050,7 @@
       <c r="C310" s="5">
         <v>0.01</v>
       </c>
-      <c r="D310" s="4">
+      <c r="D310" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -5047,7 +5064,7 @@
       <c r="C311" s="5">
         <v>0.01</v>
       </c>
-      <c r="D311" s="4">
+      <c r="D311" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -5061,7 +5078,7 @@
       <c r="C312" s="5">
         <v>0.01</v>
       </c>
-      <c r="D312" s="4">
+      <c r="D312" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -5075,7 +5092,7 @@
       <c r="C313" s="5">
         <v>0.01</v>
       </c>
-      <c r="D313" s="4">
+      <c r="D313" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -5089,7 +5106,7 @@
       <c r="C314" s="5">
         <v>0.01</v>
       </c>
-      <c r="D314" s="4">
+      <c r="D314" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -5103,7 +5120,7 @@
       <c r="C315" s="5">
         <v>0.01</v>
       </c>
-      <c r="D315" s="4">
+      <c r="D315" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -5117,7 +5134,7 @@
       <c r="C316" s="5">
         <v>0.01</v>
       </c>
-      <c r="D316" s="4">
+      <c r="D316" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -5131,7 +5148,7 @@
       <c r="C317" s="5">
         <v>0.01</v>
       </c>
-      <c r="D317" s="4">
+      <c r="D317" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -5145,7 +5162,7 @@
       <c r="C318" s="5">
         <v>0.01</v>
       </c>
-      <c r="D318" s="4">
+      <c r="D318" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -5159,7 +5176,7 @@
       <c r="C319" s="5">
         <v>0.01</v>
       </c>
-      <c r="D319" s="4">
+      <c r="D319" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -5173,7 +5190,7 @@
       <c r="C320" s="5">
         <v>0.01</v>
       </c>
-      <c r="D320" s="4">
+      <c r="D320" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -5187,7 +5204,7 @@
       <c r="C321" s="5">
         <v>0.01</v>
       </c>
-      <c r="D321" s="4">
+      <c r="D321" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -5201,7 +5218,7 @@
       <c r="C322" s="5">
         <v>0.01</v>
       </c>
-      <c r="D322" s="4">
+      <c r="D322" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -5215,8 +5232,8 @@
       <c r="C323" s="5">
         <v>0.01</v>
       </c>
-      <c r="D323" s="4">
-        <v>-3.1242520843971101E-2</v>
+      <c r="D323" s="9">
+        <v>0.01</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.2">
@@ -5229,8 +5246,8 @@
       <c r="C324" s="5">
         <v>0.01</v>
       </c>
-      <c r="D324" s="4">
-        <v>-3.2250095112751197E-2</v>
+      <c r="D324" s="9">
+        <v>0.01</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.2">
@@ -5243,8 +5260,8 @@
       <c r="C325" s="5">
         <v>0.01</v>
       </c>
-      <c r="D325" s="4">
-        <v>-3.3324823851580497E-2</v>
+      <c r="D325" s="9">
+        <v>0.01</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.2">
@@ -5257,8 +5274,8 @@
       <c r="C326" s="5">
         <v>0.01</v>
       </c>
-      <c r="D326" s="4">
-        <v>-3.4473652239999E-2</v>
+      <c r="D326" s="9">
+        <v>0.01</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.2">
@@ -5271,8 +5288,8 @@
       <c r="C327" s="5">
         <v>0.01</v>
       </c>
-      <c r="D327" s="4">
-        <v>-1.43353858087664E-2</v>
+      <c r="D327" s="9">
+        <v>0.01</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.2">
@@ -5285,8 +5302,8 @@
       <c r="C328" s="5">
         <v>0.01</v>
       </c>
-      <c r="D328" s="4">
-        <v>-1.6465720857773401E-3</v>
+      <c r="D328" s="9">
+        <v>-1.08951486295413E-2</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.2">
@@ -5299,8 +5316,8 @@
       <c r="C329" s="5">
         <v>0.01</v>
       </c>
-      <c r="D329" s="4">
-        <v>-1.64928775695949E-3</v>
+      <c r="D329" s="9">
+        <v>-3.03529726186915E-2</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.2">
@@ -5313,8 +5330,8 @@
       <c r="C330" s="5">
         <v>0.01</v>
       </c>
-      <c r="D330" s="4">
-        <v>-1.65201240078638E-3</v>
+      <c r="D330" s="9">
+        <v>-3.13031152177764E-2</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.2">
@@ -5327,8 +5344,8 @@
       <c r="C331" s="5">
         <v>0.01</v>
       </c>
-      <c r="D331" s="4">
-        <v>-1.65474606180072E-3</v>
+      <c r="D331" s="9">
+        <v>-3.2314664896247597E-2</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.2">
@@ -5341,8 +5358,8 @@
       <c r="C332" s="5">
         <v>0.01</v>
       </c>
-      <c r="D332" s="4">
-        <v>-1.65748878483984E-3</v>
+      <c r="D332" s="9">
+        <v>-3.3393773496405002E-2</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.2">
@@ -5355,8 +5372,8 @@
       <c r="C333" s="5">
         <v>0.01</v>
       </c>
-      <c r="D333" s="4">
-        <v>-1.66024061503955E-3</v>
+      <c r="D333" s="9">
+        <v>-3.4547442982233799E-2</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.2">
@@ -5369,8 +5386,8 @@
       <c r="C334" s="5">
         <v>0.01</v>
       </c>
-      <c r="D334" s="4">
-        <v>-1.6630015978349501E-3</v>
+      <c r="D334" s="9">
+        <v>-3.5783677541803997E-2</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.2">
@@ -5383,8 +5400,8 @@
       <c r="C335" s="5">
         <v>0.01</v>
       </c>
-      <c r="D335" s="4">
-        <v>-1.66577177896521E-3</v>
+      <c r="D335" s="9">
+        <v>-3.7111669558316497E-2</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.2">
@@ -5397,8 +5414,8 @@
       <c r="C336" s="5">
         <v>-1.6603722426084301E-2</v>
       </c>
-      <c r="D336" s="4">
-        <v>-2.39472342160525E-2</v>
+      <c r="D336" s="9">
+        <v>-3.8542028587357897E-2</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.2">
@@ -5411,8 +5428,8 @@
       <c r="C337" s="5">
         <v>-3.10537614952122E-2</v>
       </c>
-      <c r="D337" s="4">
-        <v>-4.2984869325997203E-2</v>
+      <c r="D337" s="9">
+        <v>-4.0087065408308198E-2</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.2">
@@ -5425,8 +5442,8 @@
       <c r="C338" s="5">
         <v>-3.20490036094601E-2</v>
       </c>
-      <c r="D338" s="4">
-        <v>-4.4915558749550902E-2</v>
+      <c r="D338" s="9">
+        <v>-4.1761147249630398E-2</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.2">
@@ -5439,8 +5456,8 @@
       <c r="C339" s="5">
         <v>-3.3110150956990103E-2</v>
       </c>
-      <c r="D339" s="4">
-        <v>-4.7027840481565303E-2</v>
+      <c r="D339" s="9">
+        <v>-4.3581145900905199E-2</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.2">
@@ -5453,8 +5470,8 @@
       <c r="C340" s="5">
         <v>-3.4243974109110099E-2</v>
       </c>
-      <c r="D340" s="4">
-        <v>-4.9348598499802603E-2</v>
+      <c r="D340" s="9">
+        <v>-4.5567008339622198E-2</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.2">
@@ -5467,8 +5484,8 @@
       <c r="C341" s="5">
         <v>-3.5458203926318599E-2</v>
       </c>
-      <c r="D341" s="4">
-        <v>-5.1910299003322301E-2</v>
+      <c r="D341" s="9">
+        <v>-4.7742490816826903E-2</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.2">
@@ -5481,8 +5498,8 @@
       <c r="C342" s="5">
         <v>-3.6761708067661297E-2</v>
       </c>
-      <c r="D342" s="4">
-        <v>-5.4752518615856401E-2</v>
+      <c r="D342" s="9">
+        <v>-5.0136113767986698E-2</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.2">
@@ -5495,8 +5512,8 @@
       <c r="C343" s="5">
         <v>-3.81647079186547E-2</v>
       </c>
-      <c r="D343" s="4">
-        <v>-5.79240037071364E-2</v>
+      <c r="D343" s="9">
+        <v>-5.2782419138882798E-2</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.2">
@@ -5509,8 +5526,8 @@
       <c r="C344" s="5">
         <v>-3.9679047164165399E-2</v>
       </c>
-      <c r="D344" s="4">
-        <v>0.01</v>
+      <c r="D344" s="9">
+        <v>-5.5723648088223297E-2</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.2">
@@ -5523,7 +5540,7 @@
       <c r="C345" s="5">
         <v>-4.1318526943510799E-2</v>
       </c>
-      <c r="D345" s="4">
+      <c r="D345" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -5537,7 +5554,7 @@
       <c r="C346" s="5">
         <v>-4.3099327675310301E-2</v>
       </c>
-      <c r="D346" s="4">
+      <c r="D346" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -5551,7 +5568,7 @@
       <c r="C347" s="5">
         <v>-4.5040544877667399E-2</v>
       </c>
-      <c r="D347" s="4">
+      <c r="D347" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -5565,7 +5582,7 @@
       <c r="C348" s="5">
         <v>-4.7164876619707002E-2</v>
       </c>
-      <c r="D348" s="4">
+      <c r="D348" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -5579,7 +5596,7 @@
       <c r="C349" s="5">
         <v>-4.9499515144219602E-2</v>
       </c>
-      <c r="D349" s="4">
+      <c r="D349" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -5593,7 +5610,7 @@
       <c r="C350" s="5">
         <v>-4.7949560212159202E-2</v>
       </c>
-      <c r="D350" s="4">
+      <c r="D350" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -5607,7 +5624,7 @@
       <c r="C351" s="5">
         <v>-1.8569754676546198E-2</v>
       </c>
-      <c r="D351" s="4">
+      <c r="D351" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -5621,7 +5638,7 @@
       <c r="C352" s="5">
         <v>-1.8921115142957998E-2</v>
       </c>
-      <c r="D352" s="4">
+      <c r="D352" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -5635,7 +5652,7 @@
       <c r="C353" s="5">
         <v>-1.9286028305170101E-2</v>
       </c>
-      <c r="D353" s="4">
+      <c r="D353" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -5649,7 +5666,7 @@
       <c r="C354" s="5">
         <v>-1.9665293716414799E-2</v>
       </c>
-      <c r="D354" s="4">
+      <c r="D354" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -5663,7 +5680,7 @@
       <c r="C355" s="5">
         <v>-2.0059775085353101E-2</v>
       </c>
-      <c r="D355" s="4">
+      <c r="D355" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -5677,7 +5694,7 @@
       <c r="C356" s="5">
         <v>-2.0470406842519901E-2</v>
       </c>
-      <c r="D356" s="4">
+      <c r="D356" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -5691,7 +5708,7 @@
       <c r="C357" s="5">
         <v>-2.0898201530118302E-2</v>
       </c>
-      <c r="D357" s="4">
+      <c r="D357" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -5705,7 +5722,7 @@
       <c r="C358" s="5">
         <v>-1.54292229565211E-2</v>
       </c>
-      <c r="D358" s="4">
+      <c r="D358" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -5719,7 +5736,7 @@
       <c r="C359" s="5">
         <v>0.01</v>
       </c>
-      <c r="D359" s="4">
+      <c r="D359" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -5733,7 +5750,7 @@
       <c r="C360" s="5">
         <v>0.01</v>
       </c>
-      <c r="D360" s="4">
+      <c r="D360" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -5747,7 +5764,7 @@
       <c r="C361" s="5">
         <v>0.01</v>
       </c>
-      <c r="D361" s="4">
+      <c r="D361" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -5761,7 +5778,7 @@
       <c r="C362" s="5">
         <v>0.01</v>
       </c>
-      <c r="D362" s="4">
+      <c r="D362" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -5775,7 +5792,7 @@
       <c r="C363" s="5">
         <v>0.01</v>
       </c>
-      <c r="D363" s="4">
+      <c r="D363" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -5789,7 +5806,7 @@
       <c r="C364" s="5">
         <v>0.01</v>
       </c>
-      <c r="D364" s="4">
+      <c r="D364" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -5803,7 +5820,7 @@
       <c r="C365" s="5">
         <v>0.01</v>
       </c>
-      <c r="D365" s="4">
+      <c r="D365" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -5817,7 +5834,7 @@
       <c r="C366" s="5">
         <v>0.01</v>
       </c>
-      <c r="D366" s="4">
+      <c r="D366" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -5831,7 +5848,7 @@
       <c r="C367" s="5">
         <v>0.01</v>
       </c>
-      <c r="D367" s="4">
+      <c r="D367" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -5845,7 +5862,7 @@
       <c r="C368" s="5">
         <v>0.01</v>
       </c>
-      <c r="D368" s="4">
+      <c r="D368" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -5859,7 +5876,7 @@
       <c r="C369" s="5">
         <v>0.01</v>
       </c>
-      <c r="D369" s="4">
+      <c r="D369" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -5873,7 +5890,7 @@
       <c r="C370" s="5">
         <v>0.01</v>
       </c>
-      <c r="D370" s="4">
+      <c r="D370" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -5887,7 +5904,7 @@
       <c r="C371" s="5">
         <v>0.01</v>
       </c>
-      <c r="D371" s="4">
+      <c r="D371" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -5901,7 +5918,7 @@
       <c r="C372" s="5">
         <v>0.01</v>
       </c>
-      <c r="D372" s="4">
+      <c r="D372" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -5915,7 +5932,7 @@
       <c r="C373" s="5">
         <v>0.01</v>
       </c>
-      <c r="D373" s="4">
+      <c r="D373" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -5929,7 +5946,7 @@
       <c r="C374" s="5">
         <v>0.01</v>
       </c>
-      <c r="D374" s="4">
+      <c r="D374" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -5943,7 +5960,7 @@
       <c r="C375" s="5">
         <v>0.01</v>
       </c>
-      <c r="D375" s="4">
+      <c r="D375" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -5957,7 +5974,7 @@
       <c r="C376" s="5">
         <v>0.01</v>
       </c>
-      <c r="D376" s="4">
+      <c r="D376" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -5971,7 +5988,7 @@
       <c r="C377" s="5">
         <v>0.01</v>
       </c>
-      <c r="D377" s="4">
+      <c r="D377" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -5985,7 +6002,7 @@
       <c r="C378" s="5">
         <v>0.01</v>
       </c>
-      <c r="D378" s="4">
+      <c r="D378" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -5999,7 +6016,7 @@
       <c r="C379" s="5">
         <v>0.01</v>
       </c>
-      <c r="D379" s="4">
+      <c r="D379" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -6013,7 +6030,7 @@
       <c r="C380" s="5">
         <v>0.01</v>
       </c>
-      <c r="D380" s="4">
+      <c r="D380" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -6027,7 +6044,7 @@
       <c r="C381" s="5">
         <v>0.01</v>
       </c>
-      <c r="D381" s="4">
+      <c r="D381" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -6041,7 +6058,7 @@
       <c r="C382" s="5">
         <v>0.01</v>
       </c>
-      <c r="D382" s="4">
+      <c r="D382" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -6055,7 +6072,7 @@
       <c r="C383" s="5">
         <v>0.01</v>
       </c>
-      <c r="D383" s="4">
+      <c r="D383" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -6069,7 +6086,7 @@
       <c r="C384" s="5">
         <v>0.01</v>
       </c>
-      <c r="D384" s="4">
+      <c r="D384" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -6083,7 +6100,7 @@
       <c r="C385" s="5">
         <v>0.01</v>
       </c>
-      <c r="D385" s="4">
+      <c r="D385" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -6097,7 +6114,7 @@
       <c r="C386" s="5">
         <v>0.01</v>
       </c>
-      <c r="D386" s="4">
+      <c r="D386" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -6111,7 +6128,7 @@
       <c r="C387" s="5">
         <v>0.01</v>
       </c>
-      <c r="D387" s="4">
+      <c r="D387" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -6125,7 +6142,7 @@
       <c r="C388" s="5">
         <v>0.01</v>
       </c>
-      <c r="D388" s="4">
+      <c r="D388" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -6139,7 +6156,7 @@
       <c r="C389" s="5">
         <v>0.01</v>
       </c>
-      <c r="D389" s="4">
+      <c r="D389" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -6153,7 +6170,7 @@
       <c r="C390" s="5">
         <v>0.01</v>
       </c>
-      <c r="D390" s="4">
+      <c r="D390" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -6167,7 +6184,7 @@
       <c r="C391" s="5">
         <v>0.01</v>
       </c>
-      <c r="D391" s="4">
+      <c r="D391" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -6181,7 +6198,7 @@
       <c r="C392" s="5">
         <v>0.01</v>
       </c>
-      <c r="D392" s="4">
+      <c r="D392" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -6195,7 +6212,7 @@
       <c r="C393" s="5">
         <v>0.01</v>
       </c>
-      <c r="D393" s="4">
+      <c r="D393" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -6209,7 +6226,7 @@
       <c r="C394" s="5">
         <v>0.01</v>
       </c>
-      <c r="D394" s="4">
+      <c r="D394" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -6223,7 +6240,7 @@
       <c r="C395" s="5">
         <v>0.01</v>
       </c>
-      <c r="D395" s="4">
+      <c r="D395" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -6237,7 +6254,7 @@
       <c r="C396" s="5">
         <v>0.01</v>
       </c>
-      <c r="D396" s="4">
+      <c r="D396" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -6251,7 +6268,7 @@
       <c r="C397" s="5">
         <v>0.01</v>
       </c>
-      <c r="D397" s="4">
+      <c r="D397" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -6265,7 +6282,7 @@
       <c r="C398" s="5">
         <v>0.01</v>
       </c>
-      <c r="D398" s="4">
+      <c r="D398" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -6279,7 +6296,7 @@
       <c r="C399" s="5">
         <v>0.01</v>
       </c>
-      <c r="D399" s="4">
+      <c r="D399" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -6293,7 +6310,7 @@
       <c r="C400" s="5">
         <v>0.01</v>
       </c>
-      <c r="D400" s="4">
+      <c r="D400" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -6307,7 +6324,7 @@
       <c r="C401" s="5">
         <v>0.01</v>
       </c>
-      <c r="D401" s="4">
+      <c r="D401" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -6321,7 +6338,7 @@
       <c r="C402" s="5">
         <v>0.01</v>
       </c>
-      <c r="D402" s="4">
+      <c r="D402" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -6335,7 +6352,7 @@
       <c r="C403" s="5">
         <v>0.01</v>
       </c>
-      <c r="D403" s="4">
+      <c r="D403" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -6349,7 +6366,7 @@
       <c r="C404" s="5">
         <v>0.01</v>
       </c>
-      <c r="D404" s="4">
+      <c r="D404" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -6363,7 +6380,7 @@
       <c r="C405" s="5">
         <v>0.01</v>
       </c>
-      <c r="D405" s="4">
+      <c r="D405" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -6377,7 +6394,7 @@
       <c r="C406" s="5">
         <v>0.01</v>
       </c>
-      <c r="D406" s="4">
+      <c r="D406" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -6391,7 +6408,7 @@
       <c r="C407" s="5">
         <v>0.01</v>
       </c>
-      <c r="D407" s="4">
+      <c r="D407" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -6405,7 +6422,7 @@
       <c r="C408" s="5">
         <v>0.01</v>
       </c>
-      <c r="D408" s="4">
+      <c r="D408" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -6419,7 +6436,7 @@
       <c r="C409" s="5">
         <v>0.01</v>
       </c>
-      <c r="D409" s="4">
+      <c r="D409" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -6433,7 +6450,7 @@
       <c r="C410" s="5">
         <v>0.01</v>
       </c>
-      <c r="D410" s="4">
+      <c r="D410" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -6447,7 +6464,7 @@
       <c r="C411" s="5">
         <v>0.01</v>
       </c>
-      <c r="D411" s="4">
+      <c r="D411" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -6461,7 +6478,7 @@
       <c r="C412" s="5">
         <v>0.01</v>
       </c>
-      <c r="D412" s="4">
+      <c r="D412" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -6475,7 +6492,7 @@
       <c r="C413" s="5">
         <v>0.01</v>
       </c>
-      <c r="D413" s="4">
+      <c r="D413" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -6489,7 +6506,7 @@
       <c r="C414" s="5">
         <v>0.01</v>
       </c>
-      <c r="D414" s="4">
+      <c r="D414" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -6503,7 +6520,7 @@
       <c r="C415" s="5">
         <v>0.01</v>
       </c>
-      <c r="D415" s="4">
+      <c r="D415" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -6517,7 +6534,7 @@
       <c r="C416" s="5">
         <v>0.01</v>
       </c>
-      <c r="D416" s="4">
+      <c r="D416" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -6531,7 +6548,7 @@
       <c r="C417" s="5">
         <v>0.01</v>
       </c>
-      <c r="D417" s="4">
+      <c r="D417" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -6545,7 +6562,7 @@
       <c r="C418" s="5">
         <v>0.01</v>
       </c>
-      <c r="D418" s="4">
+      <c r="D418" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -6559,7 +6576,7 @@
       <c r="C419" s="5">
         <v>0.01</v>
       </c>
-      <c r="D419" s="4">
+      <c r="D419" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -6573,7 +6590,7 @@
       <c r="C420" s="5">
         <v>0.01</v>
       </c>
-      <c r="D420" s="4">
+      <c r="D420" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -6587,7 +6604,7 @@
       <c r="C421" s="5">
         <v>0.01</v>
       </c>
-      <c r="D421" s="4">
+      <c r="D421" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -6601,7 +6618,7 @@
       <c r="C422" s="5">
         <v>0.01</v>
       </c>
-      <c r="D422" s="4">
+      <c r="D422" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -6615,7 +6632,7 @@
       <c r="C423" s="5">
         <v>0.01</v>
       </c>
-      <c r="D423" s="4">
+      <c r="D423" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -6629,7 +6646,7 @@
       <c r="C424" s="5">
         <v>0.01</v>
       </c>
-      <c r="D424" s="4">
+      <c r="D424" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -6643,7 +6660,7 @@
       <c r="C425" s="5">
         <v>0.01</v>
       </c>
-      <c r="D425" s="4">
+      <c r="D425" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -6657,7 +6674,7 @@
       <c r="C426" s="5">
         <v>0.01</v>
       </c>
-      <c r="D426" s="4">
+      <c r="D426" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -6671,7 +6688,7 @@
       <c r="C427" s="5">
         <v>0.01</v>
       </c>
-      <c r="D427" s="4">
+      <c r="D427" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -6685,7 +6702,7 @@
       <c r="C428" s="5">
         <v>0.01</v>
       </c>
-      <c r="D428" s="4">
+      <c r="D428" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -6699,7 +6716,7 @@
       <c r="C429" s="5">
         <v>0.01</v>
       </c>
-      <c r="D429" s="4">
+      <c r="D429" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -6713,7 +6730,7 @@
       <c r="C430" s="5">
         <v>0.01</v>
       </c>
-      <c r="D430" s="4">
+      <c r="D430" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -6727,7 +6744,7 @@
       <c r="C431" s="5">
         <v>0.01</v>
       </c>
-      <c r="D431" s="4">
+      <c r="D431" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -6741,7 +6758,7 @@
       <c r="C432" s="5">
         <v>0.01</v>
       </c>
-      <c r="D432" s="4">
+      <c r="D432" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -6755,7 +6772,7 @@
       <c r="C433" s="5">
         <v>0.01</v>
       </c>
-      <c r="D433" s="4">
+      <c r="D433" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -6769,7 +6786,7 @@
       <c r="C434" s="5">
         <v>0.01</v>
       </c>
-      <c r="D434" s="4">
+      <c r="D434" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -6783,7 +6800,7 @@
       <c r="C435" s="5">
         <v>0.01</v>
       </c>
-      <c r="D435" s="4">
+      <c r="D435" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -6797,7 +6814,7 @@
       <c r="C436" s="5">
         <v>0.01</v>
       </c>
-      <c r="D436" s="4">
+      <c r="D436" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -6811,7 +6828,7 @@
       <c r="C437" s="5">
         <v>0.01</v>
       </c>
-      <c r="D437" s="4">
+      <c r="D437" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -6825,7 +6842,7 @@
       <c r="C438" s="5">
         <v>0.01</v>
       </c>
-      <c r="D438" s="4">
+      <c r="D438" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -6839,7 +6856,7 @@
       <c r="C439" s="5">
         <v>0.01</v>
       </c>
-      <c r="D439" s="4">
+      <c r="D439" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -6853,7 +6870,7 @@
       <c r="C440" s="5">
         <v>0.01</v>
       </c>
-      <c r="D440" s="4">
+      <c r="D440" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -6867,7 +6884,7 @@
       <c r="C441" s="5">
         <v>0.01</v>
       </c>
-      <c r="D441" s="4">
+      <c r="D441" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -6881,7 +6898,7 @@
       <c r="C442" s="5">
         <v>0.01</v>
       </c>
-      <c r="D442" s="4">
+      <c r="D442" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -6895,7 +6912,7 @@
       <c r="C443" s="5">
         <v>0.01</v>
       </c>
-      <c r="D443" s="4">
+      <c r="D443" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -6909,7 +6926,7 @@
       <c r="C444" s="5">
         <v>0.01</v>
       </c>
-      <c r="D444" s="4">
+      <c r="D444" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -6923,7 +6940,7 @@
       <c r="C445" s="5">
         <v>0.01</v>
       </c>
-      <c r="D445" s="4">
+      <c r="D445" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -6937,7 +6954,7 @@
       <c r="C446" s="5">
         <v>0.01</v>
       </c>
-      <c r="D446" s="4">
+      <c r="D446" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -6951,7 +6968,7 @@
       <c r="C447" s="5">
         <v>0.01</v>
       </c>
-      <c r="D447" s="4">
+      <c r="D447" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -6965,7 +6982,7 @@
       <c r="C448" s="5">
         <v>0.01</v>
       </c>
-      <c r="D448" s="4">
+      <c r="D448" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -6979,7 +6996,7 @@
       <c r="C449" s="5">
         <v>0.01</v>
       </c>
-      <c r="D449" s="4">
+      <c r="D449" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -6993,7 +7010,7 @@
       <c r="C450" s="5">
         <v>0.01</v>
       </c>
-      <c r="D450" s="4">
+      <c r="D450" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -7007,7 +7024,7 @@
       <c r="C451" s="5">
         <v>0.01</v>
       </c>
-      <c r="D451" s="4">
+      <c r="D451" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -7021,7 +7038,7 @@
       <c r="C452" s="5">
         <v>0.01</v>
       </c>
-      <c r="D452" s="4">
+      <c r="D452" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -7035,7 +7052,7 @@
       <c r="C453" s="5">
         <v>0.01</v>
       </c>
-      <c r="D453" s="4">
+      <c r="D453" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -7049,7 +7066,7 @@
       <c r="C454" s="5">
         <v>0.01</v>
       </c>
-      <c r="D454" s="4">
+      <c r="D454" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -7063,7 +7080,7 @@
       <c r="C455" s="5">
         <v>0.01</v>
       </c>
-      <c r="D455" s="4">
+      <c r="D455" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -7077,7 +7094,7 @@
       <c r="C456" s="5">
         <v>0.01</v>
       </c>
-      <c r="D456" s="4">
+      <c r="D456" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -7091,7 +7108,7 @@
       <c r="C457" s="5">
         <v>-1.6245315200316801E-2</v>
       </c>
-      <c r="D457" s="4">
+      <c r="D457" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -7105,7 +7122,7 @@
       <c r="C458" s="5">
         <v>-1.6513583570506501E-2</v>
       </c>
-      <c r="D458" s="4">
+      <c r="D458" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -7119,7 +7136,7 @@
       <c r="C459" s="5">
         <v>-1.6790860854447101E-2</v>
       </c>
-      <c r="D459" s="4">
+      <c r="D459" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -7133,7 +7150,7 @@
       <c r="C460" s="5">
         <v>-1.7077608604247601E-2</v>
       </c>
-      <c r="D460" s="4">
+      <c r="D460" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -7147,7 +7164,7 @@
       <c r="C461" s="5">
         <v>-1.73743204486346E-2</v>
       </c>
-      <c r="D461" s="4">
+      <c r="D461" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -7161,7 +7178,7 @@
       <c r="C462" s="5">
         <v>-1.7681524928767098E-2</v>
       </c>
-      <c r="D462" s="4">
+      <c r="D462" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -7175,7 +7192,7 @@
       <c r="C463" s="5">
         <v>-1.7999788640323498E-2</v>
       </c>
-      <c r="D463" s="4">
+      <c r="D463" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -7189,7 +7206,7 @@
       <c r="C464" s="5">
         <v>-1.8329719721140701E-2</v>
       </c>
-      <c r="D464" s="4">
+      <c r="D464" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -7203,7 +7220,7 @@
       <c r="C465" s="5">
         <v>-1.8671971729584898E-2</v>
       </c>
-      <c r="D465" s="4">
+      <c r="D465" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -7217,7 +7234,7 @@
       <c r="C466" s="5">
         <v>-1.90272479656921E-2</v>
       </c>
-      <c r="D466" s="4">
+      <c r="D466" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -7231,7 +7248,7 @@
       <c r="C467" s="5">
         <v>-1.9396306295189202E-2</v>
       </c>
-      <c r="D467" s="4">
+      <c r="D467" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -7245,7 +7262,7 @@
       <c r="C468" s="5">
         <v>-1.07928842567917E-2</v>
       </c>
-      <c r="D468" s="4">
+      <c r="D468" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -7259,7 +7276,7 @@
       <c r="C469" s="5">
         <v>0.01</v>
       </c>
-      <c r="D469" s="4">
+      <c r="D469" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -7273,7 +7290,7 @@
       <c r="C470" s="5">
         <v>0.01</v>
       </c>
-      <c r="D470" s="4">
+      <c r="D470" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -7287,7 +7304,7 @@
       <c r="C471" s="5">
         <v>0.01</v>
       </c>
-      <c r="D471" s="4">
+      <c r="D471" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -7301,7 +7318,7 @@
       <c r="C472" s="5">
         <v>0.01</v>
       </c>
-      <c r="D472" s="4">
+      <c r="D472" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -7315,7 +7332,7 @@
       <c r="C473" s="5">
         <v>0.01</v>
       </c>
-      <c r="D473" s="4">
+      <c r="D473" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -7329,8 +7346,8 @@
       <c r="C474" s="5">
         <v>0.01</v>
       </c>
-      <c r="D474" s="4">
-        <v>0.01</v>
+      <c r="D474" s="9">
+        <v>-7.4160024215519397E-3</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.2">
@@ -7343,8 +7360,8 @@
       <c r="C475" s="5">
         <v>0.01</v>
       </c>
-      <c r="D475" s="4">
-        <v>0.01</v>
+      <c r="D475" s="9">
+        <v>-1.53324862346461E-2</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.2">
@@ -7357,8 +7374,8 @@
       <c r="C476" s="5">
         <v>0.01</v>
       </c>
-      <c r="D476" s="4">
-        <v>0.01</v>
+      <c r="D476" s="9">
+        <v>-1.5571231933929799E-2</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.2">
@@ -7371,8 +7388,8 @@
       <c r="C477" s="5">
         <v>0.01</v>
       </c>
-      <c r="D477" s="4">
-        <v>0.01</v>
+      <c r="D477" s="9">
+        <v>-1.5817530367910702E-2</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.2">
@@ -7385,8 +7402,8 @@
       <c r="C478" s="5">
         <v>0.01</v>
       </c>
-      <c r="D478" s="4">
-        <v>0.01</v>
+      <c r="D478" s="9">
+        <v>-1.6071745693482398E-2</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.2">
@@ -7399,8 +7416,8 @@
       <c r="C479" s="5">
         <v>0.01</v>
       </c>
-      <c r="D479" s="4">
-        <v>-3.11874051376014E-2</v>
+      <c r="D479" s="9">
+        <v>0.01</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.2">
@@ -7413,8 +7430,8 @@
       <c r="C480" s="5">
         <v>0.01</v>
       </c>
-      <c r="D480" s="4">
-        <v>-6.1371961511195602E-2</v>
+      <c r="D480" s="9">
+        <v>0.01</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.2">
@@ -7427,8 +7444,8 @@
       <c r="C481" s="5">
         <v>0.01</v>
       </c>
-      <c r="D481" s="4">
-        <v>-6.5384751993990201E-2</v>
+      <c r="D481" s="9">
+        <v>0.01</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.2">
@@ -7441,8 +7458,8 @@
       <c r="C482" s="5">
         <v>0.01</v>
       </c>
-      <c r="D482" s="4">
-        <v>-6.9959004128690896E-2</v>
+      <c r="D482" s="9">
+        <v>0.01</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.2">
@@ -7455,8 +7472,8 @@
       <c r="C483" s="5">
         <v>0.01</v>
       </c>
-      <c r="D483" s="4">
-        <v>-7.5221419743061901E-2</v>
+      <c r="D483" s="9">
+        <v>0.01</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.2">
@@ -7469,8 +7486,8 @@
       <c r="C484" s="5">
         <v>0.01</v>
       </c>
-      <c r="D484" s="4">
-        <v>-8.1339924333198393E-2</v>
+      <c r="D484" s="9">
+        <v>0.01</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.2">
@@ -7483,7 +7500,7 @@
       <c r="C485" s="5">
         <v>0.01</v>
       </c>
-      <c r="D485" s="4">
+      <c r="D485" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -7497,7 +7514,7 @@
       <c r="C486" s="5">
         <v>0.01</v>
       </c>
-      <c r="D486" s="4">
+      <c r="D486" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -7511,7 +7528,7 @@
       <c r="C487" s="5">
         <v>0.01</v>
       </c>
-      <c r="D487" s="4">
+      <c r="D487" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -7525,7 +7542,7 @@
       <c r="C488" s="5">
         <v>0.01</v>
       </c>
-      <c r="D488" s="4">
+      <c r="D488" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -7539,7 +7556,7 @@
       <c r="C489" s="5">
         <v>0.01</v>
       </c>
-      <c r="D489" s="4">
+      <c r="D489" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -7553,7 +7570,7 @@
       <c r="C490" s="5">
         <v>0.01</v>
       </c>
-      <c r="D490" s="4">
+      <c r="D490" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -7567,7 +7584,7 @@
       <c r="C491" s="5">
         <v>0.01</v>
       </c>
-      <c r="D491" s="4">
+      <c r="D491" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -7581,7 +7598,7 @@
       <c r="C492" s="5">
         <v>0.01</v>
       </c>
-      <c r="D492" s="4">
+      <c r="D492" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -7595,7 +7612,7 @@
       <c r="C493" s="5">
         <v>0.01</v>
       </c>
-      <c r="D493" s="4">
+      <c r="D493" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -7609,7 +7626,7 @@
       <c r="C494" s="5">
         <v>0.01</v>
       </c>
-      <c r="D494" s="4">
+      <c r="D494" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -7623,7 +7640,7 @@
       <c r="C495" s="5">
         <v>0.01</v>
       </c>
-      <c r="D495" s="4">
+      <c r="D495" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -7637,7 +7654,7 @@
       <c r="C496" s="5">
         <v>0.01</v>
       </c>
-      <c r="D496" s="4">
+      <c r="D496" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -7651,7 +7668,7 @@
       <c r="C497" s="5">
         <v>0.01</v>
       </c>
-      <c r="D497" s="4">
+      <c r="D497" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -7665,7 +7682,7 @@
       <c r="C498" s="5">
         <v>0.01</v>
       </c>
-      <c r="D498" s="4">
+      <c r="D498" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -7679,7 +7696,7 @@
       <c r="C499" s="5">
         <v>0.01</v>
       </c>
-      <c r="D499" s="4">
+      <c r="D499" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -7693,7 +7710,7 @@
       <c r="C500" s="5">
         <v>0.01</v>
       </c>
-      <c r="D500" s="4">
+      <c r="D500" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -7707,7 +7724,7 @@
       <c r="C501" s="5">
         <v>0.01</v>
       </c>
-      <c r="D501" s="4">
+      <c r="D501" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -7721,7 +7738,7 @@
       <c r="C502" s="5">
         <v>0.01</v>
       </c>
-      <c r="D502" s="4">
+      <c r="D502" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -7735,7 +7752,7 @@
       <c r="C503" s="5">
         <v>0.01</v>
       </c>
-      <c r="D503" s="4">
+      <c r="D503" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -7749,7 +7766,7 @@
       <c r="C504" s="5">
         <v>0.01</v>
       </c>
-      <c r="D504" s="4">
+      <c r="D504" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -7763,7 +7780,7 @@
       <c r="C505" s="5">
         <v>0.01</v>
       </c>
-      <c r="D505" s="4">
+      <c r="D505" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -7777,7 +7794,7 @@
       <c r="C506" s="5">
         <v>0.01</v>
       </c>
-      <c r="D506" s="4">
+      <c r="D506" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -7791,7 +7808,7 @@
       <c r="C507" s="5">
         <v>0.01</v>
       </c>
-      <c r="D507" s="4">
+      <c r="D507" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -7805,7 +7822,7 @@
       <c r="C508" s="5">
         <v>0.01</v>
       </c>
-      <c r="D508" s="4">
+      <c r="D508" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -7819,7 +7836,7 @@
       <c r="C509" s="5">
         <v>0.01</v>
       </c>
-      <c r="D509" s="4">
+      <c r="D509" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -7833,7 +7850,7 @@
       <c r="C510" s="5">
         <v>0.01</v>
       </c>
-      <c r="D510" s="4">
+      <c r="D510" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -7847,7 +7864,7 @@
       <c r="C511" s="5">
         <v>0.01</v>
       </c>
-      <c r="D511" s="4">
+      <c r="D511" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -7861,7 +7878,7 @@
       <c r="C512" s="5">
         <v>0.01</v>
       </c>
-      <c r="D512" s="4">
+      <c r="D512" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -7875,7 +7892,7 @@
       <c r="C513" s="5">
         <v>0.01</v>
       </c>
-      <c r="D513" s="4">
+      <c r="D513" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -7889,7 +7906,7 @@
       <c r="C514" s="5">
         <v>0.01</v>
       </c>
-      <c r="D514" s="4">
+      <c r="D514" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -7903,7 +7920,7 @@
       <c r="C515" s="5">
         <v>0.01</v>
       </c>
-      <c r="D515" s="4">
+      <c r="D515" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -7917,7 +7934,7 @@
       <c r="C516" s="5">
         <v>0.01</v>
       </c>
-      <c r="D516" s="4">
+      <c r="D516" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -7931,7 +7948,7 @@
       <c r="C517" s="5">
         <v>0.01</v>
       </c>
-      <c r="D517" s="4">
+      <c r="D517" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -7945,7 +7962,7 @@
       <c r="C518" s="5">
         <v>0.01</v>
       </c>
-      <c r="D518" s="4">
+      <c r="D518" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -7959,7 +7976,7 @@
       <c r="C519" s="5">
         <v>0.01</v>
       </c>
-      <c r="D519" s="4">
+      <c r="D519" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -7973,7 +7990,7 @@
       <c r="C520" s="5">
         <v>0.01</v>
       </c>
-      <c r="D520" s="4">
+      <c r="D520" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -7987,7 +8004,7 @@
       <c r="C521" s="5">
         <v>0.01</v>
       </c>
-      <c r="D521" s="4">
+      <c r="D521" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -8001,7 +8018,7 @@
       <c r="C522" s="5">
         <v>0.01</v>
       </c>
-      <c r="D522" s="4">
+      <c r="D522" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -8015,7 +8032,7 @@
       <c r="C523" s="5">
         <v>0.01</v>
       </c>
-      <c r="D523" s="4">
+      <c r="D523" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -8029,7 +8046,7 @@
       <c r="C524" s="5">
         <v>0.01</v>
       </c>
-      <c r="D524" s="4">
+      <c r="D524" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -8043,7 +8060,7 @@
       <c r="C525" s="5">
         <v>0.01</v>
       </c>
-      <c r="D525" s="4">
+      <c r="D525" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -8057,7 +8074,7 @@
       <c r="C526" s="5">
         <v>0.01</v>
       </c>
-      <c r="D526" s="4">
+      <c r="D526" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -8071,7 +8088,7 @@
       <c r="C527" s="5">
         <v>0.01</v>
       </c>
-      <c r="D527" s="4">
+      <c r="D527" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -8085,7 +8102,7 @@
       <c r="C528" s="5">
         <v>0.01</v>
       </c>
-      <c r="D528" s="4">
+      <c r="D528" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -8099,7 +8116,7 @@
       <c r="C529" s="5">
         <v>0.01</v>
       </c>
-      <c r="D529" s="4">
+      <c r="D529" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -8113,7 +8130,7 @@
       <c r="C530" s="5">
         <v>0.01</v>
       </c>
-      <c r="D530" s="4">
+      <c r="D530" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -8127,7 +8144,7 @@
       <c r="C531" s="5">
         <v>0.01</v>
       </c>
-      <c r="D531" s="4">
+      <c r="D531" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -8141,7 +8158,7 @@
       <c r="C532" s="5">
         <v>0.01</v>
       </c>
-      <c r="D532" s="4">
+      <c r="D532" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -8155,7 +8172,7 @@
       <c r="C533" s="5">
         <v>0.01</v>
       </c>
-      <c r="D533" s="4">
+      <c r="D533" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -8169,7 +8186,7 @@
       <c r="C534" s="5">
         <v>0.01</v>
       </c>
-      <c r="D534" s="4">
+      <c r="D534" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -8183,7 +8200,7 @@
       <c r="C535" s="5">
         <v>0.01</v>
       </c>
-      <c r="D535" s="4">
+      <c r="D535" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -8197,7 +8214,7 @@
       <c r="C536" s="5">
         <v>0.01</v>
       </c>
-      <c r="D536" s="4">
+      <c r="D536" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -8211,7 +8228,7 @@
       <c r="C537" s="5">
         <v>0.01</v>
       </c>
-      <c r="D537" s="4">
+      <c r="D537" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -8225,7 +8242,7 @@
       <c r="C538" s="5">
         <v>0.01</v>
       </c>
-      <c r="D538" s="4">
+      <c r="D538" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -8239,7 +8256,7 @@
       <c r="C539" s="5">
         <v>0.01</v>
       </c>
-      <c r="D539" s="4">
+      <c r="D539" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -8253,7 +8270,7 @@
       <c r="C540" s="5">
         <v>0.01</v>
       </c>
-      <c r="D540" s="4">
+      <c r="D540" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -8267,7 +8284,7 @@
       <c r="C541" s="5">
         <v>0.01</v>
       </c>
-      <c r="D541" s="4">
+      <c r="D541" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -8281,7 +8298,7 @@
       <c r="C542" s="5">
         <v>0.01</v>
       </c>
-      <c r="D542" s="4">
+      <c r="D542" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -8295,7 +8312,7 @@
       <c r="C543" s="5">
         <v>0.01</v>
       </c>
-      <c r="D543" s="4">
+      <c r="D543" s="9">
         <v>0.01</v>
       </c>
     </row>
